--- a/Vaccination eligibilty by age group.xlsx
+++ b/Vaccination eligibilty by age group.xlsx
@@ -8,18 +8,20 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/annaakanteva/Desktop/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{9D3C0635-9F1D-4244-B551-237EBE2BDBD8}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{02607778-08AB-C743-828F-07ED7A5157AD}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="380" yWindow="500" windowWidth="28040" windowHeight="15840" xr2:uid="{42CBD2A0-592A-D44B-83E7-AC377C1AF0E6}"/>
+    <workbookView xWindow="380" yWindow="500" windowWidth="28040" windowHeight="15840" activeTab="3" xr2:uid="{42CBD2A0-592A-D44B-83E7-AC377C1AF0E6}"/>
   </bookViews>
   <sheets>
     <sheet name="Manitoba" sheetId="3" r:id="rId1"/>
     <sheet name="Alberta" sheetId="2" r:id="rId2"/>
-    <sheet name="PEI" sheetId="6" r:id="rId3"/>
-    <sheet name="Ontario" sheetId="1" r:id="rId4"/>
-    <sheet name="British Columbia" sheetId="4" r:id="rId5"/>
-    <sheet name="Nova Scotia" sheetId="5" r:id="rId6"/>
-    <sheet name="Saskatchewan" sheetId="7" r:id="rId7"/>
+    <sheet name="Ontario" sheetId="1" r:id="rId3"/>
+    <sheet name="British Columbia" sheetId="4" r:id="rId4"/>
+    <sheet name="Nova Scotia" sheetId="5" r:id="rId5"/>
+    <sheet name="Quebec" sheetId="8" r:id="rId6"/>
+    <sheet name="PEI" sheetId="6" r:id="rId7"/>
+    <sheet name="New Brunswick" sheetId="9" r:id="rId8"/>
+    <sheet name="Saskatchewan" sheetId="7" r:id="rId9"/>
   </sheets>
   <calcPr calcId="181029"/>
   <extLst>
@@ -40,7 +42,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="70" uniqueCount="60">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="121" uniqueCount="103">
   <si>
     <t>December 2020 to March 2021</t>
   </si>
@@ -223,19 +225,6 @@
   </si>
   <si>
     <r>
-      <t xml:space="preserve">age 74 and up </t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="10"/>
-        <color theme="1"/>
-        <rFont val="Calibri (Body)"/>
-      </rPr>
-      <t>(https://doctorsmanitoba.ca/managing-your-practice/covid-19/regular-messages/covid-19-update-march-15-2021)</t>
-    </r>
-  </si>
-  <si>
-    <r>
       <t> </t>
     </r>
     <r>
@@ -848,12 +837,657 @@
   <si>
     <t>Eligible Group (First Dose)</t>
   </si>
+  <si>
+    <r>
+      <t xml:space="preserve">seniors over the age of 90 (those born in or before 1931) and Indigenous people over the age of 65 (those born in or before 1956) </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color theme="1"/>
+        <rFont val="Calibri (Body)"/>
+      </rPr>
+      <t>(https://www.cbc.ca/news/canada/british-columbia/b-c-immunization-plan-covid-1.5931543)</t>
+    </r>
+  </si>
+  <si>
+    <t>Those aged 70 and older, as well as people who received their first dose of an mRNA vaccine on or before April 18, can now book their second shot. (https://www.cp24.com/news/more-ontarians-become-eligible-to-book-second-covid-19-vaccine-dose-appointments-today-1.5458989)</t>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">All Quebec citizens aged 30 and up  </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color theme="1"/>
+        <rFont val="Calibri (Body)"/>
+      </rPr>
+      <t>(https://dailyhive.com/montreal/quebec-vaccine-covid-19-age-30)</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">those aged 18 to 24 </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color theme="1"/>
+        <rFont val="Calibri (Body)"/>
+      </rPr>
+      <t>(https://dailyhive.com/montreal/quebec-vaccine-covid-19-age-30)</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">residents aged 70 and greater (born in 1951 and before) </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color theme="1"/>
+        <rFont val="Calibri (Body)"/>
+      </rPr>
+      <t>(https://thereview.ca/2021/03/10/age-70-and-up-can-now-sign-up-for-covid-19-vaccination-in-quebec/)</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">60 to 62 became eligible to receive the Oxford-AstraZeneca </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color theme="1"/>
+        <rFont val="Calibri (Body)"/>
+      </rPr>
+      <t>(https://globalnews.ca/news/7708841/covid-19-vaccines-provincial-breakdown/)</t>
+    </r>
+  </si>
+  <si>
+    <t>80 and older, health-care professionals who have close contact with patients, and people with complex medical conditions</t>
+  </si>
+  <si>
+    <t>all residents of First Nations communities who are aged 16 and older eligible for vaccine</t>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">75 and older </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color theme="1"/>
+        <rFont val="Calibri (Body)"/>
+      </rPr>
+      <t>(https://globalnews.ca/news/7708841/covid-19-vaccines-provincial-breakdown/)</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">people aged 65 to 74, and First Nations, Inuit and Metis aged 50-plus </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color theme="1"/>
+        <rFont val="Calibri (Body)"/>
+      </rPr>
+      <t>(https://globalnews.ca/news/7708841/covid-19-vaccines-provincial-breakdown/)</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">Albertans born 1981 or earlier (aged 40 or over) eligible to receive AstraZeneca </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color theme="1"/>
+        <rFont val="Calibri (Body)"/>
+      </rPr>
+      <t>(https://skillssociety.ca/news/alberta-covid-19-vaccine-update/)</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">*anyone aged 50 and 64, and 35 to 49 for First Nations, Métis and Inuit eligible for mRNA vaccine 
+*Front-line policing and provincial sheriffs who interact with residents at shelters, correctional facilities and remand centres, Canadian Border Security Agency staff and firefighters.
+*Certain group of caregivers of Albertans who are most at risk of severe outcomes
+*Staff and residents who provide care or support to Albertans in facilities previously not offered immunization </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color theme="1"/>
+        <rFont val="Calibri (Body)"/>
+      </rPr>
+      <t>(https://lethbridgenewsnow.com/2021/04/29/last-phases-of-albertas-phase-2-vaccine-rollout-to-start-friday/)</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">All Indigenous peoples ages 18 and up eligible to receive vaccine </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color theme="1"/>
+        <rFont val="Calibri (Body)"/>
+      </rPr>
+      <t>(https://www.abbynews.com/news/all-indigenous-adults-in-b-c-now-eligible-for-covid-19-vaccine/)</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">People with conditions such as various forms of cancer, transplant recipients and severe respiratory conditions </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color theme="1"/>
+        <rFont val="Calibri (Body)"/>
+      </rPr>
+      <t>(https://www.castanet.net/news/BC/328833/BC-expanding-COVID-19-vaccine-eligibility-to-those-at-risk-due-to-existing-medical-conditions)</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">Under the updated plan, second doses will be delayed until four months after the first dose (not 21 days recommended by manufacturers) </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color theme="1"/>
+        <rFont val="Calibri (Body)"/>
+      </rPr>
+      <t>(https://www.timescolonist.com/news/local/b-c-reveals-more-detail-on-covid-19-vaccine-plan-second-doses-pushed-to-four-months-1.24288577)</t>
+    </r>
+  </si>
+  <si>
+    <t>registered people aged 50 and up eligble to receive vaccine (https://www.surreynowleader.com/news/b-c-to-moving-to-covid-19-vaccine-appointments-for-age-50-and-up/)</t>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">registered people aged 56 and up eligble to receive vaccine </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color theme="1"/>
+        <rFont val="Calibri (Body)"/>
+      </rPr>
+      <t>(https://www.surreynowleader.com/news/b-c-to-moving-to-covid-19-vaccine-appointments-for-age-50-and-up/)</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">People in their 30s who have registered through the province's system are starting to receive their invitations to book a dose </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color theme="1"/>
+        <rFont val="Calibri (Body)"/>
+      </rPr>
+      <t>(https://bc.ctvnews.ca/covid-19-vaccines-b-c-passes-50-threshold-of-eligible-adults-receiving-1st-dose-1.5425200)</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color theme="2" tint="-0.249977111117893"/>
+        <rFont val="Calibri (Body)"/>
+      </rPr>
+      <t>Born 1981 &amp; earlier (40+) eligble to register for vaccine</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve"> </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <rFont val="Calibri (Body)"/>
+      </rPr>
+      <t>(https://dailyhive.com/vancouver/bc-covid-19-vaccination-registration-age-18)</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color theme="2" tint="-0.249977111117893"/>
+        <rFont val="Calibri (Body)"/>
+      </rPr>
+      <t>Born 1986 &amp; earlier (35+) eligble to register for vaccine</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve"> </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <rFont val="Calibri (Body)"/>
+      </rPr>
+      <t>(https://dailyhive.com/vancouver/bc-covid-19-vaccination-registration-age-18)</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color theme="2" tint="-0.249977111117893"/>
+        <rFont val="Calibri (Body)"/>
+      </rPr>
+      <t>Born 1991 &amp; earlier (30+) eligible to register for vaccine</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve"> </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <rFont val="Calibri (Body)"/>
+      </rPr>
+      <t>(https://dailyhive.com/vancouver/bc-covid-19-vaccination-registration-age-18)</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color theme="2" tint="-0.249977111117893"/>
+        <rFont val="Calibri (Body)"/>
+      </rPr>
+      <t>Born 1996 &amp; earlier (25+) can now registe</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <rFont val="Calibri (Body)"/>
+      </rPr>
+      <t>r</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="14"/>
+        <rFont val="Calibri (Body)"/>
+      </rPr>
+      <t xml:space="preserve"> </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <rFont val="Calibri (Body)"/>
+      </rPr>
+      <t>(https://dailyhive.com/vancouver/bc-covid-19-vaccination-registration-age-18)</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color theme="2" tint="-0.249977111117893"/>
+        <rFont val="Calibri (Body)"/>
+      </rPr>
+      <t>Born 2003 &amp; earlier (18+) can now register</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <rFont val="Calibri (Body)"/>
+      </rPr>
+      <t xml:space="preserve"> (</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <rFont val="Calibri (Body)"/>
+      </rPr>
+      <t xml:space="preserve"> https://dailyhive.com/vancouver/bc-covid-19-vaccination-registration-age-18)</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="23"/>
+        <rFont val="Calibri (Body)"/>
+      </rPr>
+      <t xml:space="preserve">
+</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <rFont val="Calibri (Body)"/>
+      </rPr>
+      <t>age 60 and over getting their covid vaccine invites</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="23"/>
+        <rFont val="Calibri (Body)"/>
+      </rPr>
+      <t xml:space="preserve"> </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <rFont val="Calibri (Body)"/>
+      </rPr>
+      <t>(https://www.citynews1130.com/2021/04/23/60-british-columbians-to-receivecovid-vaccine-invitation-18-register/)</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color theme="2" tint="-0.249977111117893"/>
+        <rFont val="Calibri (Body)"/>
+      </rPr>
+      <t xml:space="preserve"> people born in 1956 (65 and up) can now register for the vaccine.</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve"> </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <rFont val="Calibri (Body)"/>
+      </rPr>
+      <t>(https://www.nanaimobulletin.com/news/b-c-residents-age-65-can-now-register-to-get-their-covid-19-vaccine/)</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">1941 or before (80 years old and over) and Indigenous peoples born in or before 1956 (65 years old and over) </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color theme="1"/>
+        <rFont val="Calibri (Body)"/>
+      </rPr>
+      <t>(https://www.straight.com/covid-19-pandemic/bc-announces-next-priority-and-age-based-groups-for-covid-19-immunization-program)</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">age 79 and Indigenous peoples 55 and older </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color theme="1"/>
+        <rFont val="Calibri (Body)"/>
+      </rPr>
+      <t>(https://www.straight.com/covid-19-pandemic/bc-announces-next-priority-and-age-based-groups-for-covid-19-immunization-program)</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">age 75 and up </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color theme="1"/>
+        <rFont val="Calibri (Body)"/>
+      </rPr>
+      <t>(https://www.straight.com/covid-19-pandemic/bc-announces-next-priority-and-age-based-groups-for-covid-19-immunization-program)</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">age 76 and up </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color theme="1"/>
+        <rFont val="Calibri (Body)"/>
+      </rPr>
+      <t>(https://www.straight.com/covid-19-pandemic/bc-announces-next-priority-and-age-based-groups-for-covid-19-immunization-program)</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t>age 77 and up (</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color theme="1"/>
+        <rFont val="Calibri (Body)"/>
+      </rPr>
+      <t>https://www.straight.com/covid-19-pandemic/bc-announces-next-priority-and-age-based-groups-for-covid-19-immunization-program)</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">age 78 and up </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color theme="1"/>
+        <rFont val="Calibri (Body)"/>
+      </rPr>
+      <t>(https://www.straight.com/covid-19-pandemic/bc-announces-next-priority-and-age-based-groups-for-covid-19-immunization-program)</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">25 and up now eligible to receive vaccine </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color theme="1"/>
+        <rFont val="Calibri (Body)"/>
+      </rPr>
+      <t>(https://bc.ctvnews.ca/gen-z-on-deck-as-b-c-opens-vaccine-booking-to-everyone-18-and-up-1.5430194)</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">20 and up now eligible to receive vaccine </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color theme="1"/>
+        <rFont val="Calibri (Body)"/>
+      </rPr>
+      <t>(https://bc.ctvnews.ca/gen-z-on-deck-as-b-c-opens-vaccine-booking-to-everyone-18-and-up-1.5430194)</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">18-years-old and up now eligible to receive vaccine </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color theme="1"/>
+        <rFont val="Calibri (Body)"/>
+      </rPr>
+      <t>(https://bc.ctvnews.ca/gen-z-on-deck-as-b-c-opens-vaccine-booking-to-everyone-18-and-up-1.5430194)</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">12 and up are eligible to get vaccine </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color theme="1"/>
+        <rFont val="Calibri (Body)"/>
+      </rPr>
+      <t>(https://globalnews.ca/news/7878087/kids-12-to-17-years-old-can-now-register-for-the-covid-19-vaccine-in-british-columbia/)</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">30 and up </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color theme="1"/>
+        <rFont val="Calibri (Body)"/>
+      </rPr>
+      <t>(https://www.cbc.ca/news/canada/nova-scotia/vaccine-eligibility-covid-19-age-30-34-1.6029417)</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">25 and up </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color theme="1"/>
+        <rFont val="Calibri (Body)"/>
+      </rPr>
+      <t>(https://atlantic.ctvnews.ca/nova-scotians-aged-25-to-29-now-eligible-for-pfizer-moderna-covid-19-vaccines-1.5436279)</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">20 and up </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color theme="1"/>
+        <rFont val="Calibri (Body)"/>
+      </rPr>
+      <t>(https://www.halifaxtoday.ca/coronavirus-covid-19-local-news/nova-scotians-20-now-eligible-to-book-pfizer-or-moderna-vaccines-3807224)</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">12 and up </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color theme="1"/>
+        <rFont val="Calibri (Body)"/>
+      </rPr>
+      <t>(https://www.ckbw.ca/2021/05/27/covid-19-vaccination-appointments-open-up-in-nova-scotia-to-12/)</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">50 and up </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color theme="1"/>
+        <rFont val="Calibri (Body)"/>
+      </rPr>
+      <t>(https://montreal.ctvnews.ca/quebec-opening-covid-19-vaccine-appointments-to-everyone-by-may-14-1.5407173)</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">45 and up </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color theme="1"/>
+        <rFont val="Calibri (Body)"/>
+      </rPr>
+      <t>(https://montreal.ctvnews.ca/quebec-opening-covid-19-vaccine-appointments-to-everyone-by-may-14-1.5407173)</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">40 and up </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color theme="1"/>
+        <rFont val="Calibri (Body)"/>
+      </rPr>
+      <t>(https://montreal.ctvnews.ca/quebec-opening-covid-19-vaccine-appointments-to-everyone-by-may-14-1.5407173)</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">35 and up </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color theme="1"/>
+        <rFont val="Calibri (Body)"/>
+      </rPr>
+      <t>(https://montreal.ctvnews.ca/quebec-opening-covid-19-vaccine-appointments-to-everyone-by-may-14-1.5407173)</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">25 and up </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color theme="1"/>
+        <rFont val="Calibri (Body)"/>
+      </rPr>
+      <t>(https://montreal.ctvnews.ca/quebec-opening-covid-19-vaccine-appointments-to-everyone-by-may-14-1.5407173)</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">12 and up </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color theme="1"/>
+        <rFont val="Calibri (Body)"/>
+      </rPr>
+      <t>(https://montrealgazette.com/news/local-news/quebec-to-open-covid-19-vaccine-reservations-for-12-17-year-olds-on-may-25)</t>
+    </r>
+  </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="7" x14ac:knownFonts="1">
+  <fonts count="13" x14ac:knownFonts="1">
     <font>
       <sz val="12"/>
       <color theme="1"/>
@@ -881,13 +1515,6 @@
       <name val="Calibri (Body)"/>
     </font>
     <font>
-      <sz val="12"/>
-      <color theme="1"/>
-      <name val="Calibri"/>
-      <family val="2"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
       <sz val="10"/>
       <color theme="1"/>
       <name val="Calibri (Body)"/>
@@ -896,6 +1523,41 @@
       <sz val="12"/>
       <color theme="1"/>
       <name val="Calibri (Body)"/>
+    </font>
+    <font>
+      <sz val="12"/>
+      <color rgb="FF000000"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="14"/>
+      <name val="Calibri (Body)"/>
+    </font>
+    <font>
+      <sz val="10"/>
+      <name val="Calibri (Body)"/>
+    </font>
+    <font>
+      <sz val="23"/>
+      <name val="Calibri (Body)"/>
+    </font>
+    <font>
+      <sz val="12"/>
+      <name val="Calibri (Body)"/>
+    </font>
+    <font>
+      <sz val="12"/>
+      <color theme="2" tint="-0.249977111117893"/>
+      <name val="Calibri (Body)"/>
+    </font>
+    <font>
+      <sz val="12"/>
+      <color theme="2" tint="-0.249977111117893"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
     </font>
   </fonts>
   <fills count="2">
@@ -918,7 +1580,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="8">
+  <cellXfs count="16">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment wrapText="1"/>
@@ -933,6 +1595,24 @@
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="15" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="left" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="15" fontId="12" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -1252,8 +1932,8 @@
   </sheetPr>
   <dimension ref="A1:C39"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="C2" sqref="C2"/>
+    <sheetView workbookViewId="0">
+      <selection sqref="A1:XFD1"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -1267,10 +1947,10 @@
         <v>12</v>
       </c>
       <c r="B1" s="7" t="s">
-        <v>59</v>
+        <v>58</v>
       </c>
       <c r="C1" s="7" t="s">
-        <v>58</v>
+        <v>57</v>
       </c>
     </row>
     <row r="2" spans="1:3" ht="47" x14ac:dyDescent="0.2">
@@ -1302,7 +1982,7 @@
         <v>44258</v>
       </c>
       <c r="B5" s="6" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="C5" s="1" t="s">
         <v>15</v>
@@ -1313,7 +1993,7 @@
         <v>44265</v>
       </c>
       <c r="B6" s="6" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="C6" s="1"/>
     </row>
@@ -1331,7 +2011,7 @@
         <v>44270</v>
       </c>
       <c r="B8" s="6" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="C8" s="1"/>
     </row>
@@ -1340,7 +2020,7 @@
         <v>44271</v>
       </c>
       <c r="B9" s="6" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="C9" s="1"/>
     </row>
@@ -1349,7 +2029,7 @@
         <v>44273</v>
       </c>
       <c r="B10" s="6" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="C10" s="1"/>
     </row>
@@ -1358,7 +2038,7 @@
         <v>44278</v>
       </c>
       <c r="B11" s="6" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="C11" s="1"/>
     </row>
@@ -1367,7 +2047,7 @@
         <v>44284</v>
       </c>
       <c r="B12" s="6" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="C12" s="1"/>
     </row>
@@ -1376,7 +2056,7 @@
         <v>44295</v>
       </c>
       <c r="B13" s="6" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="C13" s="1"/>
     </row>
@@ -1385,7 +2065,7 @@
         <v>44302</v>
       </c>
       <c r="B14" s="6" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="C14" s="1"/>
     </row>
@@ -1394,7 +2074,7 @@
         <v>44305</v>
       </c>
       <c r="B15" s="6" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="C15" s="1"/>
     </row>
@@ -1411,7 +2091,7 @@
         <v>44309</v>
       </c>
       <c r="B17" s="6" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
     </row>
     <row r="18" spans="1:3" ht="49" x14ac:dyDescent="0.2">
@@ -1419,7 +2099,7 @@
         <v>44312</v>
       </c>
       <c r="B18" s="6" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
     </row>
     <row r="19" spans="1:3" ht="49" x14ac:dyDescent="0.2">
@@ -1427,7 +2107,7 @@
         <v>44314</v>
       </c>
       <c r="B19" s="6" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
     </row>
     <row r="20" spans="1:3" ht="117" x14ac:dyDescent="0.2">
@@ -1435,7 +2115,7 @@
         <v>44316</v>
       </c>
       <c r="B20" s="6" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
     </row>
     <row r="21" spans="1:3" ht="32" x14ac:dyDescent="0.2">
@@ -1443,7 +2123,7 @@
         <v>44319</v>
       </c>
       <c r="B21" s="6" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
     </row>
     <row r="22" spans="1:3" ht="66" x14ac:dyDescent="0.2">
@@ -1451,7 +2131,7 @@
         <v>44321</v>
       </c>
       <c r="B22" s="1" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
     </row>
     <row r="23" spans="1:3" ht="32" x14ac:dyDescent="0.2">
@@ -1459,7 +2139,7 @@
         <v>44323</v>
       </c>
       <c r="B23" s="1" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
     </row>
     <row r="24" spans="1:3" ht="83" x14ac:dyDescent="0.2">
@@ -1467,7 +2147,7 @@
         <v>44328</v>
       </c>
       <c r="B24" s="1" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
     </row>
     <row r="25" spans="1:3" ht="49" x14ac:dyDescent="0.2">
@@ -1475,7 +2155,7 @@
         <v>44330</v>
       </c>
       <c r="B25" s="1" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
     </row>
     <row r="26" spans="1:3" ht="100" x14ac:dyDescent="0.2">
@@ -1483,7 +2163,7 @@
         <v>44337</v>
       </c>
       <c r="C26" s="1" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
     </row>
     <row r="27" spans="1:3" ht="117" x14ac:dyDescent="0.2">
@@ -1491,7 +2171,7 @@
         <v>44341</v>
       </c>
       <c r="C27" s="1" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
     </row>
     <row r="28" spans="1:3" ht="49" x14ac:dyDescent="0.2">
@@ -1499,7 +2179,7 @@
         <v>44344</v>
       </c>
       <c r="C28" s="1" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
     </row>
     <row r="29" spans="1:3" ht="151" x14ac:dyDescent="0.2">
@@ -1507,7 +2187,7 @@
         <v>44347</v>
       </c>
       <c r="C29" s="1" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
     </row>
     <row r="30" spans="1:3" ht="32" x14ac:dyDescent="0.2">
@@ -1515,7 +2195,7 @@
         <v>44351</v>
       </c>
       <c r="C30" s="1" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
     </row>
     <row r="31" spans="1:3" ht="32" x14ac:dyDescent="0.2">
@@ -1523,7 +2203,7 @@
         <v>44354</v>
       </c>
       <c r="C31" s="1" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
     </row>
     <row r="32" spans="1:3" ht="32" x14ac:dyDescent="0.2">
@@ -1531,7 +2211,7 @@
         <v>44356</v>
       </c>
       <c r="C32" s="1" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
     </row>
     <row r="33" spans="1:3" ht="34" x14ac:dyDescent="0.2">
@@ -1539,7 +2219,7 @@
         <v>44358</v>
       </c>
       <c r="C33" s="1" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
     </row>
     <row r="34" spans="1:3" ht="49" x14ac:dyDescent="0.2">
@@ -1547,7 +2227,7 @@
         <v>44362</v>
       </c>
       <c r="C34" s="1" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
     </row>
     <row r="35" spans="1:3" ht="32" x14ac:dyDescent="0.2">
@@ -1555,7 +2235,7 @@
         <v>44365</v>
       </c>
       <c r="C35" s="1" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
     </row>
     <row r="36" spans="1:3" ht="34" x14ac:dyDescent="0.2">
@@ -1563,7 +2243,7 @@
         <v>44368</v>
       </c>
       <c r="C36" s="1" t="s">
-        <v>54</v>
+        <v>53</v>
       </c>
     </row>
     <row r="37" spans="1:3" ht="34" x14ac:dyDescent="0.2">
@@ -1571,7 +2251,7 @@
         <v>44369</v>
       </c>
       <c r="C37" s="1" t="s">
-        <v>55</v>
+        <v>54</v>
       </c>
     </row>
     <row r="38" spans="1:3" ht="34" x14ac:dyDescent="0.2">
@@ -1579,7 +2259,7 @@
         <v>44370</v>
       </c>
       <c r="C38" s="1" t="s">
-        <v>56</v>
+        <v>55</v>
       </c>
     </row>
     <row r="39" spans="1:3" ht="32" x14ac:dyDescent="0.2">
@@ -1587,7 +2267,7 @@
         <v>44372</v>
       </c>
       <c r="C39" s="1" t="s">
-        <v>57</v>
+        <v>56</v>
       </c>
     </row>
   </sheetData>
@@ -1597,16 +2277,19 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{9263ABFD-1995-8B49-B8CF-34CEC88DD4AA}">
-  <dimension ref="A1:B5"/>
+  <sheetPr>
+    <tabColor theme="9" tint="0.39997558519241921"/>
+  </sheetPr>
+  <dimension ref="A1:B7"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="B1" sqref="A1:B1"/>
+      <selection activeCell="B8" sqref="B8"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
   <cols>
     <col min="1" max="1" width="15.33203125" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="57.33203125" customWidth="1"/>
+    <col min="2" max="2" width="79.33203125" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:2" x14ac:dyDescent="0.2">
@@ -1625,27 +2308,43 @@
         <v>11</v>
       </c>
     </row>
-    <row r="3" spans="1:2" ht="32" x14ac:dyDescent="0.2">
+    <row r="3" spans="1:2" ht="49" x14ac:dyDescent="0.2">
       <c r="A3" s="5">
         <v>44270</v>
       </c>
       <c r="B3" s="6" t="s">
-        <v>20</v>
-      </c>
-    </row>
-    <row r="4" spans="1:2" ht="44" x14ac:dyDescent="0.2">
-      <c r="A4" s="2">
+        <v>68</v>
+      </c>
+    </row>
+    <row r="4" spans="1:2" ht="34" x14ac:dyDescent="0.2">
+      <c r="A4" s="5">
+        <v>44306</v>
+      </c>
+      <c r="B4" s="6" t="s">
+        <v>69</v>
+      </c>
+    </row>
+    <row r="5" spans="1:2" ht="151" x14ac:dyDescent="0.2">
+      <c r="A5" s="5">
+        <v>44316</v>
+      </c>
+      <c r="B5" s="6" t="s">
+        <v>70</v>
+      </c>
+    </row>
+    <row r="6" spans="1:2" ht="44" x14ac:dyDescent="0.2">
+      <c r="A6" s="2">
         <v>44322</v>
       </c>
-      <c r="B4" s="1" t="s">
+      <c r="B6" s="1" t="s">
         <v>10</v>
       </c>
     </row>
-    <row r="5" spans="1:2" ht="44" x14ac:dyDescent="0.2">
-      <c r="A5" s="2">
+    <row r="7" spans="1:2" ht="44" x14ac:dyDescent="0.2">
+      <c r="A7" s="2">
         <v>44326</v>
       </c>
-      <c r="B5" s="1" t="s">
+      <c r="B7" s="1" t="s">
         <v>9</v>
       </c>
     </row>
@@ -1655,6 +2354,526 @@
 </file>
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{15DE0807-279F-8F4C-92A5-7CC81C662A1A}">
+  <sheetPr>
+    <tabColor theme="9" tint="0.39997558519241921"/>
+  </sheetPr>
+  <dimension ref="A1:C10"/>
+  <sheetViews>
+    <sheetView zoomScale="109" workbookViewId="0">
+      <selection activeCell="C2" sqref="C2"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
+  <cols>
+    <col min="1" max="1" width="26.83203125" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="125.5" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="46.6640625" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A1" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="B1" s="3" t="s">
+        <v>2</v>
+      </c>
+      <c r="C1" s="7" t="s">
+        <v>57</v>
+      </c>
+    </row>
+    <row r="2" spans="1:3" ht="204" x14ac:dyDescent="0.2">
+      <c r="A2" t="s">
+        <v>0</v>
+      </c>
+      <c r="B2" s="1" t="s">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="3" spans="1:3" ht="17" x14ac:dyDescent="0.2">
+      <c r="A3" s="2">
+        <v>44270</v>
+      </c>
+      <c r="B3" s="1" t="s">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="4" spans="1:3" ht="17" x14ac:dyDescent="0.2">
+      <c r="A4" s="2">
+        <v>44277</v>
+      </c>
+      <c r="B4" s="1" t="s">
+        <v>67</v>
+      </c>
+    </row>
+    <row r="5" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A5" s="4">
+        <v>44316</v>
+      </c>
+      <c r="B5" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="6" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A6" s="2">
+        <v>44322</v>
+      </c>
+      <c r="B6" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="7" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A7" s="2">
+        <v>44329</v>
+      </c>
+      <c r="B7" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="8" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A8" s="2">
+        <v>44334</v>
+      </c>
+      <c r="B8" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="9" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A9" s="2">
+        <v>44339</v>
+      </c>
+      <c r="B9" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="10" spans="1:3" ht="102" x14ac:dyDescent="0.2">
+      <c r="A10" s="2">
+        <v>44354</v>
+      </c>
+      <c r="C10" s="8" t="s">
+        <v>60</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{71854902-3CD3-8A42-ACC5-77FA1A138A51}">
+  <sheetPr>
+    <tabColor theme="9" tint="0.39997558519241921"/>
+  </sheetPr>
+  <dimension ref="A1:C25"/>
+  <sheetViews>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="C17" sqref="C17"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
+  <cols>
+    <col min="2" max="2" width="108.6640625" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="52.6640625" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A1" s="7" t="s">
+        <v>12</v>
+      </c>
+      <c r="B1" s="7" t="s">
+        <v>58</v>
+      </c>
+      <c r="C1" s="7" t="s">
+        <v>57</v>
+      </c>
+    </row>
+    <row r="2" spans="1:3" ht="81" x14ac:dyDescent="0.2">
+      <c r="A2" s="5">
+        <v>44256</v>
+      </c>
+      <c r="B2" s="3"/>
+      <c r="C2" s="1" t="s">
+        <v>73</v>
+      </c>
+    </row>
+    <row r="3" spans="1:3" ht="34" x14ac:dyDescent="0.2">
+      <c r="A3" s="5">
+        <v>44263</v>
+      </c>
+      <c r="B3" s="6" t="s">
+        <v>59</v>
+      </c>
+    </row>
+    <row r="4" spans="1:3" ht="32" x14ac:dyDescent="0.2">
+      <c r="A4" s="2">
+        <v>44270</v>
+      </c>
+      <c r="B4" s="1" t="s">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="5" spans="1:3" ht="32" x14ac:dyDescent="0.2">
+      <c r="A5" s="2">
+        <v>44274</v>
+      </c>
+      <c r="B5" s="1" t="s">
+        <v>83</v>
+      </c>
+    </row>
+    <row r="6" spans="1:3" ht="32" x14ac:dyDescent="0.2">
+      <c r="A6" s="2">
+        <v>44275</v>
+      </c>
+      <c r="B6" s="1" t="s">
+        <v>84</v>
+      </c>
+    </row>
+    <row r="7" spans="1:3" ht="17" x14ac:dyDescent="0.2">
+      <c r="A7" s="2">
+        <v>44277</v>
+      </c>
+      <c r="B7" s="1" t="s">
+        <v>88</v>
+      </c>
+    </row>
+    <row r="8" spans="1:3" ht="17" x14ac:dyDescent="0.2">
+      <c r="A8" s="2">
+        <v>44278</v>
+      </c>
+      <c r="B8" s="1" t="s">
+        <v>87</v>
+      </c>
+    </row>
+    <row r="9" spans="1:3" ht="17" x14ac:dyDescent="0.2">
+      <c r="A9" s="2">
+        <v>44280</v>
+      </c>
+      <c r="B9" s="1" t="s">
+        <v>86</v>
+      </c>
+    </row>
+    <row r="10" spans="1:3" ht="17" x14ac:dyDescent="0.2">
+      <c r="A10" s="2">
+        <v>44282</v>
+      </c>
+      <c r="B10" s="1" t="s">
+        <v>85</v>
+      </c>
+    </row>
+    <row r="11" spans="1:3" ht="32" x14ac:dyDescent="0.2">
+      <c r="A11" s="2">
+        <v>44284</v>
+      </c>
+      <c r="B11" s="1" t="s">
+        <v>72</v>
+      </c>
+    </row>
+    <row r="12" spans="1:3" ht="32" x14ac:dyDescent="0.2">
+      <c r="A12" s="2">
+        <v>44287</v>
+      </c>
+      <c r="B12" s="1" t="s">
+        <v>71</v>
+      </c>
+    </row>
+    <row r="13" spans="1:3" s="14" customFormat="1" ht="32" x14ac:dyDescent="0.2">
+      <c r="A13" s="15">
+        <v>44294</v>
+      </c>
+      <c r="B13" s="13" t="s">
+        <v>82</v>
+      </c>
+    </row>
+    <row r="14" spans="1:3" s="14" customFormat="1" ht="17" x14ac:dyDescent="0.2">
+      <c r="A14" s="15">
+        <v>44305</v>
+      </c>
+      <c r="B14" s="13" t="s">
+        <v>77</v>
+      </c>
+    </row>
+    <row r="15" spans="1:3" s="14" customFormat="1" ht="17" x14ac:dyDescent="0.2">
+      <c r="A15" s="15">
+        <v>44306</v>
+      </c>
+      <c r="B15" s="13" t="s">
+        <v>78</v>
+      </c>
+    </row>
+    <row r="16" spans="1:3" s="14" customFormat="1" ht="17" x14ac:dyDescent="0.2">
+      <c r="A16" s="15">
+        <v>44307</v>
+      </c>
+      <c r="B16" s="13" t="s">
+        <v>79</v>
+      </c>
+    </row>
+    <row r="17" spans="1:2" s="14" customFormat="1" ht="30" x14ac:dyDescent="0.35">
+      <c r="A17" s="15">
+        <v>44308</v>
+      </c>
+      <c r="B17" s="11" t="s">
+        <v>80</v>
+      </c>
+    </row>
+    <row r="18" spans="1:2" ht="77" x14ac:dyDescent="0.2">
+      <c r="A18" s="2">
+        <v>44309</v>
+      </c>
+      <c r="B18" s="12" t="s">
+        <v>81</v>
+      </c>
+    </row>
+    <row r="19" spans="1:2" ht="32" x14ac:dyDescent="0.2">
+      <c r="A19" s="2">
+        <v>44316</v>
+      </c>
+      <c r="B19" s="1" t="s">
+        <v>75</v>
+      </c>
+    </row>
+    <row r="20" spans="1:2" ht="34" x14ac:dyDescent="0.2">
+      <c r="A20" s="2">
+        <v>44323</v>
+      </c>
+      <c r="B20" s="1" t="s">
+        <v>74</v>
+      </c>
+    </row>
+    <row r="21" spans="1:2" ht="32" x14ac:dyDescent="0.2">
+      <c r="A21" s="2">
+        <v>44328</v>
+      </c>
+      <c r="B21" s="1" t="s">
+        <v>76</v>
+      </c>
+    </row>
+    <row r="22" spans="1:2" ht="17" x14ac:dyDescent="0.2">
+      <c r="A22" s="2">
+        <v>44330</v>
+      </c>
+      <c r="B22" s="1" t="s">
+        <v>89</v>
+      </c>
+    </row>
+    <row r="23" spans="1:2" ht="17" x14ac:dyDescent="0.2">
+      <c r="A23" s="2">
+        <v>44331</v>
+      </c>
+      <c r="B23" s="1" t="s">
+        <v>90</v>
+      </c>
+    </row>
+    <row r="24" spans="1:2" ht="32" x14ac:dyDescent="0.2">
+      <c r="A24" s="2">
+        <v>44332</v>
+      </c>
+      <c r="B24" s="1" t="s">
+        <v>91</v>
+      </c>
+    </row>
+    <row r="25" spans="1:2" ht="32" x14ac:dyDescent="0.2">
+      <c r="A25" s="2">
+        <v>44335</v>
+      </c>
+      <c r="B25" s="1" t="s">
+        <v>92</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{1A7BDD84-789C-754A-BE6D-96527C4465A2}">
+  <sheetPr>
+    <tabColor theme="9" tint="0.39997558519241921"/>
+  </sheetPr>
+  <dimension ref="A1:B7"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="D10" sqref="D10"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
+  <cols>
+    <col min="2" max="2" width="70.83203125" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A1" s="3" t="s">
+        <v>12</v>
+      </c>
+      <c r="B1" s="3" t="s">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="2" spans="1:2" ht="32" x14ac:dyDescent="0.2">
+      <c r="A2" s="2">
+        <v>44270</v>
+      </c>
+      <c r="B2" s="6" t="s">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="3" spans="1:2" ht="32" x14ac:dyDescent="0.2">
+      <c r="A3" s="2">
+        <v>44273</v>
+      </c>
+      <c r="B3" s="1" t="s">
+        <v>64</v>
+      </c>
+    </row>
+    <row r="4" spans="1:2" ht="32" x14ac:dyDescent="0.2">
+      <c r="A4" s="2">
+        <v>44333</v>
+      </c>
+      <c r="B4" s="1" t="s">
+        <v>93</v>
+      </c>
+    </row>
+    <row r="5" spans="1:2" ht="32" x14ac:dyDescent="0.2">
+      <c r="A5" s="2">
+        <v>44336</v>
+      </c>
+      <c r="B5" s="1" t="s">
+        <v>94</v>
+      </c>
+    </row>
+    <row r="6" spans="1:2" ht="32" x14ac:dyDescent="0.2">
+      <c r="A6" s="2">
+        <v>44341</v>
+      </c>
+      <c r="B6" s="1" t="s">
+        <v>95</v>
+      </c>
+    </row>
+    <row r="7" spans="1:2" ht="32" x14ac:dyDescent="0.2">
+      <c r="A7" s="2">
+        <v>44343</v>
+      </c>
+      <c r="B7" s="1" t="s">
+        <v>96</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{AC9A9624-7D16-7A4A-8E76-FCC0A758D24F}">
+  <sheetPr>
+    <tabColor theme="9" tint="0.39997558519241921"/>
+  </sheetPr>
+  <dimension ref="A1:C10"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="D10" sqref="D10"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
+  <cols>
+    <col min="1" max="1" width="13.33203125" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="52.1640625" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="19.1640625" bestFit="1" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A1" s="7" t="s">
+        <v>12</v>
+      </c>
+      <c r="B1" s="7" t="s">
+        <v>58</v>
+      </c>
+      <c r="C1" s="7" t="s">
+        <v>57</v>
+      </c>
+    </row>
+    <row r="2" spans="1:3" ht="47" x14ac:dyDescent="0.2">
+      <c r="A2" s="9">
+        <v>44265</v>
+      </c>
+      <c r="B2" s="10" t="s">
+        <v>63</v>
+      </c>
+      <c r="C2" s="7"/>
+    </row>
+    <row r="3" spans="1:3" ht="32" x14ac:dyDescent="0.2">
+      <c r="A3" s="9">
+        <v>44316</v>
+      </c>
+      <c r="B3" s="10" t="s">
+        <v>97</v>
+      </c>
+      <c r="C3" s="7"/>
+    </row>
+    <row r="4" spans="1:3" ht="32" x14ac:dyDescent="0.2">
+      <c r="A4" s="9">
+        <v>44319</v>
+      </c>
+      <c r="B4" s="10" t="s">
+        <v>98</v>
+      </c>
+      <c r="C4" s="7"/>
+    </row>
+    <row r="5" spans="1:3" ht="32" x14ac:dyDescent="0.2">
+      <c r="A5" s="9">
+        <v>44321</v>
+      </c>
+      <c r="B5" s="10" t="s">
+        <v>99</v>
+      </c>
+      <c r="C5" s="7"/>
+    </row>
+    <row r="6" spans="1:3" ht="32" x14ac:dyDescent="0.2">
+      <c r="A6" s="9">
+        <v>44323</v>
+      </c>
+      <c r="B6" s="10" t="s">
+        <v>100</v>
+      </c>
+      <c r="C6" s="7"/>
+    </row>
+    <row r="7" spans="1:3" ht="32" x14ac:dyDescent="0.2">
+      <c r="A7" s="2">
+        <v>44326</v>
+      </c>
+      <c r="B7" s="1" t="s">
+        <v>61</v>
+      </c>
+    </row>
+    <row r="8" spans="1:3" ht="32" x14ac:dyDescent="0.2">
+      <c r="A8" s="2">
+        <v>44328</v>
+      </c>
+      <c r="B8" s="1" t="s">
+        <v>101</v>
+      </c>
+    </row>
+    <row r="9" spans="1:3" ht="32" x14ac:dyDescent="0.2">
+      <c r="A9" s="2">
+        <v>44330</v>
+      </c>
+      <c r="B9" s="1" t="s">
+        <v>62</v>
+      </c>
+    </row>
+    <row r="10" spans="1:3" ht="32" x14ac:dyDescent="0.2">
+      <c r="A10" s="2">
+        <v>44341</v>
+      </c>
+      <c r="B10" s="1" t="s">
+        <v>102</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{853811BD-DB9B-2048-97A7-6384298FE324}">
   <dimension ref="A1:B2"/>
   <sheetViews>
@@ -1680,7 +2899,7 @@
         <v>44270</v>
       </c>
       <c r="B2" s="6" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
     </row>
   </sheetData>
@@ -1688,82 +2907,45 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{15DE0807-279F-8F4C-92A5-7CC81C662A1A}">
-  <dimension ref="A1:B8"/>
+<file path=xl/worksheets/sheet8.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{0C981A76-4E79-524F-AA76-9F072D57FCDA}">
+  <dimension ref="A1:C3"/>
   <sheetViews>
-    <sheetView zoomScale="109" workbookViewId="0">
-      <selection activeCell="B10" sqref="B10"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="J15" sqref="J15"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
   <cols>
-    <col min="1" max="1" width="26.83203125" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="125.5" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="55" customWidth="1"/>
+    <col min="3" max="3" width="19.1640625" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A1" s="3" t="s">
-        <v>8</v>
-      </c>
-      <c r="B1" s="3" t="s">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="2" spans="1:2" ht="204" x14ac:dyDescent="0.2">
-      <c r="A2" t="s">
-        <v>0</v>
+    <row r="1" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A1" s="7" t="s">
+        <v>12</v>
+      </c>
+      <c r="B1" s="7" t="s">
+        <v>58</v>
+      </c>
+      <c r="C1" s="7" t="s">
+        <v>57</v>
+      </c>
+    </row>
+    <row r="2" spans="1:3" ht="51" x14ac:dyDescent="0.2">
+      <c r="A2" s="2">
+        <v>44273</v>
       </c>
       <c r="B2" s="1" t="s">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="3" spans="1:2" ht="17" x14ac:dyDescent="0.2">
+        <v>65</v>
+      </c>
+    </row>
+    <row r="3" spans="1:3" ht="34" x14ac:dyDescent="0.2">
       <c r="A3" s="2">
-        <v>44270</v>
+        <v>44274</v>
       </c>
       <c r="B3" s="1" t="s">
-        <v>24</v>
-      </c>
-    </row>
-    <row r="4" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A4" s="4">
-        <v>44316</v>
-      </c>
-      <c r="B4" t="s">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="5" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A5" s="2">
-        <v>44322</v>
-      </c>
-      <c r="B5" t="s">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="6" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A6" s="2">
-        <v>44329</v>
-      </c>
-      <c r="B6" t="s">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="7" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A7" s="2">
-        <v>44334</v>
-      </c>
-      <c r="B7" t="s">
-        <v>6</v>
-      </c>
-    </row>
-    <row r="8" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A8" s="2">
-        <v>44339</v>
-      </c>
-      <c r="B8" t="s">
-        <v>7</v>
+        <v>66</v>
       </c>
     </row>
   </sheetData>
@@ -1771,75 +2953,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{71854902-3CD3-8A42-ACC5-77FA1A138A51}">
-  <dimension ref="A1:B2"/>
-  <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="B7" sqref="B7"/>
-    </sheetView>
-  </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
-  <cols>
-    <col min="2" max="2" width="53.1640625" customWidth="1"/>
-  </cols>
-  <sheetData>
-    <row r="1" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A1" s="3" t="s">
-        <v>12</v>
-      </c>
-      <c r="B1" s="3" t="s">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="2" spans="1:2" ht="32" x14ac:dyDescent="0.2">
-      <c r="A2" s="2">
-        <v>44270</v>
-      </c>
-      <c r="B2" s="1" t="s">
-        <v>19</v>
-      </c>
-    </row>
-  </sheetData>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-</worksheet>
-</file>
-
-<file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{1A7BDD84-789C-754A-BE6D-96527C4465A2}">
-  <dimension ref="A1:B2"/>
-  <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="C2" sqref="C2"/>
-    </sheetView>
-  </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
-  <cols>
-    <col min="2" max="2" width="60.5" customWidth="1"/>
-  </cols>
-  <sheetData>
-    <row r="1" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A1" s="3" t="s">
-        <v>12</v>
-      </c>
-      <c r="B1" s="3" t="s">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="2" spans="1:2" ht="32" x14ac:dyDescent="0.2">
-      <c r="A2" s="2">
-        <v>44270</v>
-      </c>
-      <c r="B2" s="6" t="s">
-        <v>22</v>
-      </c>
-    </row>
-  </sheetData>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-</worksheet>
-</file>
-
-<file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet9.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{8C77C438-82DD-C442-809A-EB0A73DDFC6D}">
   <dimension ref="A1:B2"/>
   <sheetViews>
@@ -1865,7 +2979,7 @@
         <v>44270</v>
       </c>
       <c r="B2" s="6" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
     </row>
   </sheetData>

--- a/Vaccination eligibilty by age group.xlsx
+++ b/Vaccination eligibilty by age group.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/annaakanteva/Desktop/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{02607778-08AB-C743-828F-07ED7A5157AD}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{1558FE8B-2868-D443-8271-BF45FBD28D2F}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="380" yWindow="500" windowWidth="28040" windowHeight="15840" activeTab="3" xr2:uid="{42CBD2A0-592A-D44B-83E7-AC377C1AF0E6}"/>
+    <workbookView xWindow="760" yWindow="500" windowWidth="26520" windowHeight="15840" activeTab="7" xr2:uid="{42CBD2A0-592A-D44B-83E7-AC377C1AF0E6}"/>
   </bookViews>
   <sheets>
     <sheet name="Manitoba" sheetId="3" r:id="rId1"/>
@@ -19,9 +19,9 @@
     <sheet name="British Columbia" sheetId="4" r:id="rId4"/>
     <sheet name="Nova Scotia" sheetId="5" r:id="rId5"/>
     <sheet name="Quebec" sheetId="8" r:id="rId6"/>
-    <sheet name="PEI" sheetId="6" r:id="rId7"/>
-    <sheet name="New Brunswick" sheetId="9" r:id="rId8"/>
-    <sheet name="Saskatchewan" sheetId="7" r:id="rId9"/>
+    <sheet name="New Brunswick" sheetId="9" r:id="rId7"/>
+    <sheet name="Saskatchewan" sheetId="7" r:id="rId8"/>
+    <sheet name="PEI" sheetId="6" r:id="rId9"/>
   </sheets>
   <calcPr calcId="181029"/>
   <extLst>
@@ -42,7 +42,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="121" uniqueCount="103">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="147" uniqueCount="128">
   <si>
     <t>December 2020 to March 2021</t>
   </si>
@@ -909,9 +909,6 @@
     <t>80 and older, health-care professionals who have close contact with patients, and people with complex medical conditions</t>
   </si>
   <si>
-    <t>all residents of First Nations communities who are aged 16 and older eligible for vaccine</t>
-  </si>
-  <si>
     <r>
       <t xml:space="preserve">75 and older </t>
     </r>
@@ -1481,6 +1478,295 @@
       </rPr>
       <t>(https://montrealgazette.com/news/local-news/quebec-to-open-covid-19-vaccine-reservations-for-12-17-year-olds-on-may-25)</t>
     </r>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">aged 50 or older, as well as people over the age of 16 who have at least two chronic conditions. </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color theme="1"/>
+        <rFont val="Calibri (Body)"/>
+      </rPr>
+      <t>(https://globalnews.ca/news/7832144/nb-covid-19-update-may-4/)</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve">85 and older </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color theme="1"/>
+        <rFont val="Calibri (Body)"/>
+      </rPr>
+      <t>(https://globalnews.ca/news/7692952/new-brunswick-covid-19-coronavirus-march-12/)</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve"> 65 and older </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color theme="1"/>
+        <rFont val="Calibri (Body)"/>
+      </rPr>
+      <t>(https://www2.gnb.ca/content/gnb/en/news/news_release.2021.04.0302.html)</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">12 and older </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color theme="1"/>
+        <rFont val="Calibri (Body)"/>
+      </rPr>
+      <t>(https://www.iheartradio.ca/100-3-the-bear/n-b-expands-vaccine-rollout-to-include-youth-aged-12-to-17-announces-10-new-cases-of-covid-19-1.15280014)</t>
+    </r>
+  </si>
+  <si>
+    <t>Eligibilty for 3d dose</t>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">all residents of First Nations communities who are aged 16 and older eligible for vaccine </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color theme="1"/>
+        <rFont val="Calibri (Body)"/>
+      </rPr>
+      <t>(https://www.barrietoday.com/national-news/who-have-provinces-pegged-to-receive-covid-19-vaccines-in-the-coming-weeks-3663596)</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">11 year olds that turning 12 this year </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color theme="1"/>
+        <rFont val="Calibri (Body)"/>
+      </rPr>
+      <t>(https://www.thestar.com/news/canada/2021/08/24/new-brunswick-expands-covid-19-vaccination-to-11-year-olds-turning-12-this-year.html)</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">18 and older </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color theme="1"/>
+        <rFont val="Calibri (Body)"/>
+      </rPr>
+      <t>(https://huddle.today/n-b-reports-10-new-covid-19-cases-ages-18-now-eligible-for-vaccine/)</t>
+    </r>
+  </si>
+  <si>
+    <t>Eligible Group (1st dose)</t>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">Booster doses will be administered at least 28 days following receipt of the second mRNA dose (Pfizer or Moderna). Those eligible to receive booster immunizations include:
+- Residents of long-term care and personal care homes.
+- Transplants recipients (including solid organ transplant and hematopoietic stem cell transplants).
+- Recipients of stable, active treatment (chemotherapy, targeted therapies, immunotherapy) for malignant hematologic disorders.
+- Recipients of an anti-CD20 agent (e.g. rituximab, ocrelizumab, ofatumumab). </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color theme="1"/>
+        <rFont val="Calibri (Body)"/>
+      </rPr>
+      <t>(https://www.saskatchewan.ca/government/news-and-media/2021/august/30/covid-19-vaccination-boosters-starting-september-7)</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">child born in 2009 — meaning they turn 12 this year — can be vaccinated </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color theme="1"/>
+        <rFont val="Calibri (Body)"/>
+      </rPr>
+      <t>(https://www.thestar.com/news/canada/2021/08/20/saskatchewan-changes-eligibility-allows-some-11-year-olds-to-get-covid-19-vaccine.html)</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">anyone who received their first dose on or before May 15 eligible for 2nd dose mRNA vaccine </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color theme="1"/>
+        <rFont val="Calibri (Body)"/>
+      </rPr>
+      <t>(https://globalnews.ca/news/7966293/sask-covid-19-vaccine-eligibility-update/)</t>
+    </r>
+  </si>
+  <si>
+    <t>resident aged 12 and older is now eligible for their second dose of a COVID-19 vaccine, provided it has been 28 days since they received the first dose. (https://thestarphoenix.com/news/saskatchewan/covid-19-all-sask-residents-12-eligible-for-second-vaccine-dose)</t>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">anyone who is 55 years and older or who received their first dose of COVID-19 vaccine on or before April 7. </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color theme="1"/>
+        <rFont val="Calibri (Body)"/>
+      </rPr>
+      <t>(https://www.sasktoday.ca/north/local-news/vaccine-eligibility-drops-to-55-4172061)</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">all people age 18 and up in the Northern Saskatchewan Administrative District </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color theme="1"/>
+        <rFont val="Calibri (Body)"/>
+      </rPr>
+      <t>(https://www.thereminder.ca/local-news/northern-sask-residents-ages-18-and-up-now-vaccine-eligible-province-4210869)</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">anyone aged 45 or older or who  got first dose on or before May 1. </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color theme="1"/>
+        <rFont val="Calibri (Body)"/>
+      </rPr>
+      <t>(https://www.cbc.ca/news/canada/saskatchewan/sask-drops-second-dose-age-1.6069061)</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">37 years old and above </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color theme="1"/>
+        <rFont val="Calibri (Body)"/>
+      </rPr>
+      <t>(https://leaderpost.com/news/local-news/covid-19-sask-vaccine-eligibility-to-expand-to-37-and-older-on-Tuesday)</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">those aged 35 and over </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color theme="1"/>
+        <rFont val="Calibri (Body)"/>
+      </rPr>
+      <t>(https://www.ckom.com/2021/05/05/35-is-next-age-group-to-become-eligible-for-covid-vaccinations-in-sask/)</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">12 and over </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color theme="1"/>
+        <rFont val="Calibri (Body)"/>
+      </rPr>
+      <t>(https://www.cjme.com/2021/05/19/12-age-group-set-to-become-eligible-for-covid-vaccinations-in-sask/)</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">all residents age 50+ in the Northern Saskatchewan Administration District are eligible to receive their second dose COVID-19 vaccinations. Also second dose vaccinations are open to residents 70+ or anyone who received their first dose before March 15, 2021 </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color theme="1"/>
+        <rFont val="Calibri (Body)"/>
+      </rPr>
+      <t>(https://www.ccgazette.ca/articles/sask-residents-age-70-eligible-for-second-covid-19-vaccine-dose/)</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve"> 85 and over, or anyone who received a shot before February 15th </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color theme="1"/>
+        <rFont val="Calibri (Body)"/>
+      </rPr>
+      <t>(https://www.620ckrm.com/2021/05/16/282090/)</t>
+    </r>
+  </si>
+  <si>
+    <t>72 and over (https://eminetracanada.com/vaccine-eligibility-expanded-to-people-over-72-years-of-age-in-saskatchewan-as-of-sunday/105258/)</t>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">all residents aged 44 and older eligible for Astrazenica </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color theme="1"/>
+        <rFont val="Calibri (Body)"/>
+      </rPr>
+      <t>(https://www.discovermoosejaw.com/local/province-approves-astrazeneca-for-those-40-plus)</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">40 years and older eligible for AstraZeneca </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color theme="1"/>
+        <rFont val="Calibri (Body)"/>
+      </rPr>
+      <t>(https://www.discovermoosejaw.com/local/province-approves-astrazeneca-for-those-40-plus)</t>
+    </r>
+  </si>
+  <si>
+    <t>76 and older (https://meadowlakenow.com/2021/03/12/76-age-group-in-sask-can-book-covid-vaccinations-starting-saturday/)</t>
+  </si>
+  <si>
+    <t>32 and up (https://ca.finance.yahoo.com/news/covid-19-sask-vaccine-eligibility-203237181.html)</t>
   </si>
 </sst>
 </file>
@@ -2313,7 +2599,7 @@
         <v>44270</v>
       </c>
       <c r="B3" s="6" t="s">
-        <v>68</v>
+        <v>67</v>
       </c>
     </row>
     <row r="4" spans="1:2" ht="34" x14ac:dyDescent="0.2">
@@ -2321,7 +2607,7 @@
         <v>44306</v>
       </c>
       <c r="B4" s="6" t="s">
-        <v>69</v>
+        <v>68</v>
       </c>
     </row>
     <row r="5" spans="1:2" ht="151" x14ac:dyDescent="0.2">
@@ -2329,7 +2615,7 @@
         <v>44316</v>
       </c>
       <c r="B5" s="6" t="s">
-        <v>70</v>
+        <v>69</v>
       </c>
     </row>
     <row r="6" spans="1:2" ht="44" x14ac:dyDescent="0.2">
@@ -2403,7 +2689,7 @@
         <v>44277</v>
       </c>
       <c r="B4" s="1" t="s">
-        <v>67</v>
+        <v>66</v>
       </c>
     </row>
     <row r="5" spans="1:3" x14ac:dyDescent="0.2">
@@ -2466,7 +2752,7 @@
   </sheetPr>
   <dimension ref="A1:C25"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="C17" sqref="C17"/>
     </sheetView>
   </sheetViews>
@@ -2493,7 +2779,7 @@
       </c>
       <c r="B2" s="3"/>
       <c r="C2" s="1" t="s">
-        <v>73</v>
+        <v>72</v>
       </c>
     </row>
     <row r="3" spans="1:3" ht="34" x14ac:dyDescent="0.2">
@@ -2517,7 +2803,7 @@
         <v>44274</v>
       </c>
       <c r="B5" s="1" t="s">
-        <v>83</v>
+        <v>82</v>
       </c>
     </row>
     <row r="6" spans="1:3" ht="32" x14ac:dyDescent="0.2">
@@ -2525,7 +2811,7 @@
         <v>44275</v>
       </c>
       <c r="B6" s="1" t="s">
-        <v>84</v>
+        <v>83</v>
       </c>
     </row>
     <row r="7" spans="1:3" ht="17" x14ac:dyDescent="0.2">
@@ -2533,7 +2819,7 @@
         <v>44277</v>
       </c>
       <c r="B7" s="1" t="s">
-        <v>88</v>
+        <v>87</v>
       </c>
     </row>
     <row r="8" spans="1:3" ht="17" x14ac:dyDescent="0.2">
@@ -2541,7 +2827,7 @@
         <v>44278</v>
       </c>
       <c r="B8" s="1" t="s">
-        <v>87</v>
+        <v>86</v>
       </c>
     </row>
     <row r="9" spans="1:3" ht="17" x14ac:dyDescent="0.2">
@@ -2549,7 +2835,7 @@
         <v>44280</v>
       </c>
       <c r="B9" s="1" t="s">
-        <v>86</v>
+        <v>85</v>
       </c>
     </row>
     <row r="10" spans="1:3" ht="17" x14ac:dyDescent="0.2">
@@ -2557,7 +2843,7 @@
         <v>44282</v>
       </c>
       <c r="B10" s="1" t="s">
-        <v>85</v>
+        <v>84</v>
       </c>
     </row>
     <row r="11" spans="1:3" ht="32" x14ac:dyDescent="0.2">
@@ -2565,7 +2851,7 @@
         <v>44284</v>
       </c>
       <c r="B11" s="1" t="s">
-        <v>72</v>
+        <v>71</v>
       </c>
     </row>
     <row r="12" spans="1:3" ht="32" x14ac:dyDescent="0.2">
@@ -2573,7 +2859,7 @@
         <v>44287</v>
       </c>
       <c r="B12" s="1" t="s">
-        <v>71</v>
+        <v>70</v>
       </c>
     </row>
     <row r="13" spans="1:3" s="14" customFormat="1" ht="32" x14ac:dyDescent="0.2">
@@ -2581,7 +2867,7 @@
         <v>44294</v>
       </c>
       <c r="B13" s="13" t="s">
-        <v>82</v>
+        <v>81</v>
       </c>
     </row>
     <row r="14" spans="1:3" s="14" customFormat="1" ht="17" x14ac:dyDescent="0.2">
@@ -2589,7 +2875,7 @@
         <v>44305</v>
       </c>
       <c r="B14" s="13" t="s">
-        <v>77</v>
+        <v>76</v>
       </c>
     </row>
     <row r="15" spans="1:3" s="14" customFormat="1" ht="17" x14ac:dyDescent="0.2">
@@ -2597,7 +2883,7 @@
         <v>44306</v>
       </c>
       <c r="B15" s="13" t="s">
-        <v>78</v>
+        <v>77</v>
       </c>
     </row>
     <row r="16" spans="1:3" s="14" customFormat="1" ht="17" x14ac:dyDescent="0.2">
@@ -2605,7 +2891,7 @@
         <v>44307</v>
       </c>
       <c r="B16" s="13" t="s">
-        <v>79</v>
+        <v>78</v>
       </c>
     </row>
     <row r="17" spans="1:2" s="14" customFormat="1" ht="30" x14ac:dyDescent="0.35">
@@ -2613,7 +2899,7 @@
         <v>44308</v>
       </c>
       <c r="B17" s="11" t="s">
-        <v>80</v>
+        <v>79</v>
       </c>
     </row>
     <row r="18" spans="1:2" ht="77" x14ac:dyDescent="0.2">
@@ -2621,7 +2907,7 @@
         <v>44309</v>
       </c>
       <c r="B18" s="12" t="s">
-        <v>81</v>
+        <v>80</v>
       </c>
     </row>
     <row r="19" spans="1:2" ht="32" x14ac:dyDescent="0.2">
@@ -2629,7 +2915,7 @@
         <v>44316</v>
       </c>
       <c r="B19" s="1" t="s">
-        <v>75</v>
+        <v>74</v>
       </c>
     </row>
     <row r="20" spans="1:2" ht="34" x14ac:dyDescent="0.2">
@@ -2637,7 +2923,7 @@
         <v>44323</v>
       </c>
       <c r="B20" s="1" t="s">
-        <v>74</v>
+        <v>73</v>
       </c>
     </row>
     <row r="21" spans="1:2" ht="32" x14ac:dyDescent="0.2">
@@ -2645,7 +2931,7 @@
         <v>44328</v>
       </c>
       <c r="B21" s="1" t="s">
-        <v>76</v>
+        <v>75</v>
       </c>
     </row>
     <row r="22" spans="1:2" ht="17" x14ac:dyDescent="0.2">
@@ -2653,7 +2939,7 @@
         <v>44330</v>
       </c>
       <c r="B22" s="1" t="s">
-        <v>89</v>
+        <v>88</v>
       </c>
     </row>
     <row r="23" spans="1:2" ht="17" x14ac:dyDescent="0.2">
@@ -2661,7 +2947,7 @@
         <v>44331</v>
       </c>
       <c r="B23" s="1" t="s">
-        <v>90</v>
+        <v>89</v>
       </c>
     </row>
     <row r="24" spans="1:2" ht="32" x14ac:dyDescent="0.2">
@@ -2669,7 +2955,7 @@
         <v>44332</v>
       </c>
       <c r="B24" s="1" t="s">
-        <v>91</v>
+        <v>90</v>
       </c>
     </row>
     <row r="25" spans="1:2" ht="32" x14ac:dyDescent="0.2">
@@ -2677,7 +2963,7 @@
         <v>44335</v>
       </c>
       <c r="B25" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
     </row>
   </sheetData>
@@ -2730,7 +3016,7 @@
         <v>44333</v>
       </c>
       <c r="B4" s="1" t="s">
-        <v>93</v>
+        <v>92</v>
       </c>
     </row>
     <row r="5" spans="1:2" ht="32" x14ac:dyDescent="0.2">
@@ -2738,7 +3024,7 @@
         <v>44336</v>
       </c>
       <c r="B5" s="1" t="s">
-        <v>94</v>
+        <v>93</v>
       </c>
     </row>
     <row r="6" spans="1:2" ht="32" x14ac:dyDescent="0.2">
@@ -2746,7 +3032,7 @@
         <v>44341</v>
       </c>
       <c r="B6" s="1" t="s">
-        <v>95</v>
+        <v>94</v>
       </c>
     </row>
     <row r="7" spans="1:2" ht="32" x14ac:dyDescent="0.2">
@@ -2754,7 +3040,7 @@
         <v>44343</v>
       </c>
       <c r="B7" s="1" t="s">
-        <v>96</v>
+        <v>95</v>
       </c>
     </row>
   </sheetData>
@@ -2770,13 +3056,13 @@
   <dimension ref="A1:C10"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="D10" sqref="D10"/>
+      <selection activeCell="D14" sqref="D14"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
   <cols>
     <col min="1" max="1" width="13.33203125" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="52.1640625" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="57.1640625" customWidth="1"/>
     <col min="3" max="3" width="19.1640625" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
@@ -2805,7 +3091,7 @@
         <v>44316</v>
       </c>
       <c r="B3" s="10" t="s">
-        <v>97</v>
+        <v>96</v>
       </c>
       <c r="C3" s="7"/>
     </row>
@@ -2814,7 +3100,7 @@
         <v>44319</v>
       </c>
       <c r="B4" s="10" t="s">
-        <v>98</v>
+        <v>97</v>
       </c>
       <c r="C4" s="7"/>
     </row>
@@ -2823,7 +3109,7 @@
         <v>44321</v>
       </c>
       <c r="B5" s="10" t="s">
-        <v>99</v>
+        <v>98</v>
       </c>
       <c r="C5" s="7"/>
     </row>
@@ -2832,7 +3118,7 @@
         <v>44323</v>
       </c>
       <c r="B6" s="10" t="s">
-        <v>100</v>
+        <v>99</v>
       </c>
       <c r="C6" s="7"/>
     </row>
@@ -2849,7 +3135,7 @@
         <v>44328</v>
       </c>
       <c r="B8" s="1" t="s">
-        <v>101</v>
+        <v>100</v>
       </c>
     </row>
     <row r="9" spans="1:3" ht="32" x14ac:dyDescent="0.2">
@@ -2865,7 +3151,7 @@
         <v>44341</v>
       </c>
       <c r="B10" s="1" t="s">
-        <v>102</v>
+        <v>101</v>
       </c>
     </row>
   </sheetData>
@@ -2874,6 +3160,298 @@
 </file>
 
 <file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{0C981A76-4E79-524F-AA76-9F072D57FCDA}">
+  <sheetPr>
+    <tabColor theme="9" tint="0.39997558519241921"/>
+  </sheetPr>
+  <dimension ref="A1:D9"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="D7" sqref="D7"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
+  <cols>
+    <col min="2" max="2" width="67.6640625" customWidth="1"/>
+    <col min="3" max="4" width="19.1640625" bestFit="1" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A1" s="7" t="s">
+        <v>12</v>
+      </c>
+      <c r="B1" s="7" t="s">
+        <v>58</v>
+      </c>
+      <c r="C1" s="7" t="s">
+        <v>57</v>
+      </c>
+      <c r="D1" s="7" t="s">
+        <v>106</v>
+      </c>
+    </row>
+    <row r="2" spans="1:4" ht="32" x14ac:dyDescent="0.2">
+      <c r="A2" s="9">
+        <v>44267</v>
+      </c>
+      <c r="B2" s="10" t="s">
+        <v>103</v>
+      </c>
+      <c r="C2" s="7"/>
+    </row>
+    <row r="3" spans="1:4" ht="34" x14ac:dyDescent="0.2">
+      <c r="A3" s="2">
+        <v>44273</v>
+      </c>
+      <c r="B3" s="1" t="s">
+        <v>65</v>
+      </c>
+    </row>
+    <row r="4" spans="1:4" ht="49" x14ac:dyDescent="0.2">
+      <c r="A4" s="2">
+        <v>44274</v>
+      </c>
+      <c r="B4" s="1" t="s">
+        <v>107</v>
+      </c>
+    </row>
+    <row r="5" spans="1:4" ht="32" x14ac:dyDescent="0.2">
+      <c r="A5" s="2">
+        <v>44306</v>
+      </c>
+      <c r="B5" s="1" t="s">
+        <v>104</v>
+      </c>
+    </row>
+    <row r="6" spans="1:4" ht="34" x14ac:dyDescent="0.2">
+      <c r="A6" s="2">
+        <v>44320</v>
+      </c>
+      <c r="B6" s="1" t="s">
+        <v>102</v>
+      </c>
+    </row>
+    <row r="7" spans="1:4" ht="32" x14ac:dyDescent="0.2">
+      <c r="A7" s="2">
+        <v>44334</v>
+      </c>
+      <c r="B7" s="1" t="s">
+        <v>109</v>
+      </c>
+    </row>
+    <row r="8" spans="1:4" ht="32" x14ac:dyDescent="0.2">
+      <c r="A8" s="2">
+        <v>44342</v>
+      </c>
+      <c r="B8" s="1" t="s">
+        <v>105</v>
+      </c>
+    </row>
+    <row r="9" spans="1:4" ht="47" x14ac:dyDescent="0.2">
+      <c r="A9" s="2">
+        <v>44432</v>
+      </c>
+      <c r="B9" s="1" t="s">
+        <v>108</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet8.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{8C77C438-82DD-C442-809A-EB0A73DDFC6D}">
+  <sheetPr>
+    <tabColor theme="9" tint="0.39997558519241921"/>
+  </sheetPr>
+  <dimension ref="A1:D19"/>
+  <sheetViews>
+    <sheetView tabSelected="1" zoomScale="90" zoomScaleNormal="90" workbookViewId="0">
+      <selection activeCell="C5" sqref="C5"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
+  <cols>
+    <col min="2" max="2" width="77.83203125" customWidth="1"/>
+    <col min="3" max="3" width="62" customWidth="1"/>
+    <col min="4" max="4" width="72.33203125" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A1" s="3" t="s">
+        <v>12</v>
+      </c>
+      <c r="B1" s="3" t="s">
+        <v>110</v>
+      </c>
+      <c r="C1" s="7" t="s">
+        <v>57</v>
+      </c>
+      <c r="D1" s="7" t="s">
+        <v>106</v>
+      </c>
+    </row>
+    <row r="2" spans="1:4" ht="34" x14ac:dyDescent="0.2">
+      <c r="A2" s="5">
+        <v>44267</v>
+      </c>
+      <c r="B2" s="6" t="s">
+        <v>126</v>
+      </c>
+      <c r="C2" s="7"/>
+      <c r="D2" s="7"/>
+    </row>
+    <row r="3" spans="1:4" ht="51" x14ac:dyDescent="0.2">
+      <c r="A3" s="5">
+        <v>44268</v>
+      </c>
+      <c r="B3" s="6" t="s">
+        <v>123</v>
+      </c>
+      <c r="C3" s="7"/>
+      <c r="D3" s="7"/>
+    </row>
+    <row r="4" spans="1:4" ht="32" x14ac:dyDescent="0.2">
+      <c r="A4" s="2">
+        <v>44270</v>
+      </c>
+      <c r="B4" s="6" t="s">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="5" spans="1:4" ht="32" x14ac:dyDescent="0.2">
+      <c r="A5" s="2">
+        <v>44308</v>
+      </c>
+      <c r="B5" s="6" t="s">
+        <v>124</v>
+      </c>
+    </row>
+    <row r="6" spans="1:4" ht="32" x14ac:dyDescent="0.2">
+      <c r="A6" s="2">
+        <v>44314</v>
+      </c>
+      <c r="B6" s="6" t="s">
+        <v>125</v>
+      </c>
+    </row>
+    <row r="7" spans="1:4" ht="32" x14ac:dyDescent="0.2">
+      <c r="A7" s="2">
+        <v>44319</v>
+      </c>
+      <c r="B7" s="6" t="s">
+        <v>118</v>
+      </c>
+    </row>
+    <row r="8" spans="1:4" ht="49" x14ac:dyDescent="0.2">
+      <c r="A8" s="2">
+        <v>44320</v>
+      </c>
+      <c r="B8" s="6" t="s">
+        <v>116</v>
+      </c>
+    </row>
+    <row r="9" spans="1:4" ht="32" x14ac:dyDescent="0.2">
+      <c r="A9" s="2">
+        <v>44321</v>
+      </c>
+      <c r="B9" s="6" t="s">
+        <v>119</v>
+      </c>
+    </row>
+    <row r="10" spans="1:4" ht="34" x14ac:dyDescent="0.2">
+      <c r="A10" s="2">
+        <v>44324</v>
+      </c>
+      <c r="B10" s="6" t="s">
+        <v>127</v>
+      </c>
+    </row>
+    <row r="11" spans="1:4" ht="32" x14ac:dyDescent="0.2">
+      <c r="A11" s="2">
+        <v>44332</v>
+      </c>
+      <c r="B11" s="6"/>
+      <c r="C11" s="1" t="s">
+        <v>122</v>
+      </c>
+    </row>
+    <row r="12" spans="1:4" ht="32" x14ac:dyDescent="0.2">
+      <c r="A12" s="2">
+        <v>44335</v>
+      </c>
+      <c r="B12" s="6" t="s">
+        <v>120</v>
+      </c>
+    </row>
+    <row r="13" spans="1:4" ht="98" x14ac:dyDescent="0.2">
+      <c r="A13" s="2">
+        <v>44347</v>
+      </c>
+      <c r="B13" s="6"/>
+      <c r="C13" s="1" t="s">
+        <v>121</v>
+      </c>
+    </row>
+    <row r="14" spans="1:4" ht="64" x14ac:dyDescent="0.2">
+      <c r="A14" s="2">
+        <v>44357</v>
+      </c>
+      <c r="B14" s="6"/>
+      <c r="C14" s="1" t="s">
+        <v>115</v>
+      </c>
+    </row>
+    <row r="15" spans="1:4" ht="49" x14ac:dyDescent="0.2">
+      <c r="A15" s="2">
+        <v>44364</v>
+      </c>
+      <c r="B15" s="6"/>
+      <c r="C15" s="1" t="s">
+        <v>117</v>
+      </c>
+    </row>
+    <row r="16" spans="1:4" ht="64" x14ac:dyDescent="0.2">
+      <c r="A16" s="2">
+        <v>44367</v>
+      </c>
+      <c r="B16" s="6"/>
+      <c r="C16" s="1" t="s">
+        <v>113</v>
+      </c>
+    </row>
+    <row r="17" spans="1:4" ht="85" x14ac:dyDescent="0.2">
+      <c r="A17" s="2">
+        <v>44371</v>
+      </c>
+      <c r="B17" s="6"/>
+      <c r="C17" s="1" t="s">
+        <v>114</v>
+      </c>
+    </row>
+    <row r="18" spans="1:4" ht="47" x14ac:dyDescent="0.2">
+      <c r="A18" s="2">
+        <v>44428</v>
+      </c>
+      <c r="B18" s="6" t="s">
+        <v>112</v>
+      </c>
+    </row>
+    <row r="19" spans="1:4" ht="183" x14ac:dyDescent="0.2">
+      <c r="A19" s="2">
+        <v>44446</v>
+      </c>
+      <c r="D19" s="1" t="s">
+        <v>111</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet9.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{853811BD-DB9B-2048-97A7-6384298FE324}">
   <dimension ref="A1:B2"/>
   <sheetViews>
@@ -2905,84 +3483,4 @@
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
-</file>
-
-<file path=xl/worksheets/sheet8.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{0C981A76-4E79-524F-AA76-9F072D57FCDA}">
-  <dimension ref="A1:C3"/>
-  <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="J15" sqref="J15"/>
-    </sheetView>
-  </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
-  <cols>
-    <col min="2" max="2" width="55" customWidth="1"/>
-    <col min="3" max="3" width="19.1640625" bestFit="1" customWidth="1"/>
-  </cols>
-  <sheetData>
-    <row r="1" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A1" s="7" t="s">
-        <v>12</v>
-      </c>
-      <c r="B1" s="7" t="s">
-        <v>58</v>
-      </c>
-      <c r="C1" s="7" t="s">
-        <v>57</v>
-      </c>
-    </row>
-    <row r="2" spans="1:3" ht="51" x14ac:dyDescent="0.2">
-      <c r="A2" s="2">
-        <v>44273</v>
-      </c>
-      <c r="B2" s="1" t="s">
-        <v>65</v>
-      </c>
-    </row>
-    <row r="3" spans="1:3" ht="34" x14ac:dyDescent="0.2">
-      <c r="A3" s="2">
-        <v>44274</v>
-      </c>
-      <c r="B3" s="1" t="s">
-        <v>66</v>
-      </c>
-    </row>
-  </sheetData>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-</worksheet>
-</file>
-
-<file path=xl/worksheets/sheet9.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{8C77C438-82DD-C442-809A-EB0A73DDFC6D}">
-  <dimension ref="A1:B2"/>
-  <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="B7" sqref="B7"/>
-    </sheetView>
-  </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
-  <cols>
-    <col min="2" max="2" width="49.33203125" customWidth="1"/>
-  </cols>
-  <sheetData>
-    <row r="1" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A1" s="3" t="s">
-        <v>12</v>
-      </c>
-      <c r="B1" s="3" t="s">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="2" spans="1:2" ht="32" x14ac:dyDescent="0.2">
-      <c r="A2" s="2">
-        <v>44270</v>
-      </c>
-      <c r="B2" s="6" t="s">
-        <v>20</v>
-      </c>
-    </row>
-  </sheetData>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-</worksheet>
 </file>
--- a/Vaccination eligibilty by age group.xlsx
+++ b/Vaccination eligibilty by age group.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/annaakanteva/Desktop/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{1558FE8B-2868-D443-8271-BF45FBD28D2F}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{D17FCEC9-07E5-3A44-8522-7E84260017DA}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="760" yWindow="500" windowWidth="26520" windowHeight="15840" activeTab="7" xr2:uid="{42CBD2A0-592A-D44B-83E7-AC377C1AF0E6}"/>
+    <workbookView xWindow="760" yWindow="500" windowWidth="26520" windowHeight="15840" activeTab="8" xr2:uid="{42CBD2A0-592A-D44B-83E7-AC377C1AF0E6}"/>
   </bookViews>
   <sheets>
     <sheet name="Manitoba" sheetId="3" r:id="rId1"/>
@@ -22,6 +22,8 @@
     <sheet name="New Brunswick" sheetId="9" r:id="rId7"/>
     <sheet name="Saskatchewan" sheetId="7" r:id="rId8"/>
     <sheet name="PEI" sheetId="6" r:id="rId9"/>
+    <sheet name="NL" sheetId="11" r:id="rId10"/>
+    <sheet name="NWT" sheetId="10" r:id="rId11"/>
   </sheets>
   <calcPr calcId="181029"/>
   <extLst>
@@ -42,7 +44,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="147" uniqueCount="128">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="163" uniqueCount="144">
   <si>
     <t>December 2020 to March 2021</t>
   </si>
@@ -1767,6 +1769,160 @@
   </si>
   <si>
     <t>32 and up (https://ca.finance.yahoo.com/news/covid-19-sask-vaccine-eligibility-203237181.html)</t>
+  </si>
+  <si>
+    <t>N</t>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">people who got their first dose before May 15 </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color theme="1"/>
+        <rFont val="Calibri (Body)"/>
+      </rPr>
+      <t>(https://www.cbc.ca/news/canada/new-brunswick/covid-19-new-brunswick-vaccine-moderna-pfizer-astrazeneca-naci-1.6070837)</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">eligibility for second dose appointments will be extended to everyone, if at least 28 days has passed since their first dose. </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color theme="1"/>
+        <rFont val="Calibri (Body)"/>
+      </rPr>
+      <t>(https://villageofblackville.com/more-new-brunswickers-now-eligible-for-second-dose-vaccine-appointments/)</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">40 and over </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color theme="1"/>
+        <rFont val="Calibri (Body)"/>
+      </rPr>
+      <t>(https://www.thewave.ca/2021/05/10/n-b-expands-covid-19-vaccine-eligibility/)</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">40 and over </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color theme="1"/>
+        <rFont val="Calibri (Body)"/>
+      </rPr>
+      <t>(https://chatnewstoday.ca/2021/04/28/who-have-provinces-pegged-to-receive-covid-19-vaccines-in-the-coming-weeks-12/)</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">pregnant people </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color theme="1"/>
+        <rFont val="Calibri (Body)"/>
+      </rPr>
+      <t>(https://ca.sports.yahoo.com/news/covid-19-p-e-whats-143103106.html)</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">65 and up (for those who 65 who is born between January to March) </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color theme="1"/>
+        <rFont val="Calibri (Body)"/>
+      </rPr>
+      <t>(https://www.cbc.ca/news/canada/prince-edward-island/mass-vaccination-clinics-1.5966949)</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">65 and up (for those who 65 who is born between Oct to Dec) </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color theme="1"/>
+        <rFont val="Calibri (Body)"/>
+      </rPr>
+      <t>(https://www.cbc.ca/news/canada/prince-edward-island/mass-vaccination-clinics-1.5966949)</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">65 and up (for those who 65 who is born between July to Septemer) </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color theme="1"/>
+        <rFont val="Calibri (Body)"/>
+      </rPr>
+      <t>(https://www.cbc.ca/news/canada/prince-edward-island/mass-vaccination-clinics-1.5966949)</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">65 and up (for those who 65 who is born between April to June) </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color theme="1"/>
+        <rFont val="Calibri (Body)"/>
+      </rPr>
+      <t>(https://www.cbc.ca/news/canada/prince-edward-island/mass-vaccination-clinics-1.5966949)</t>
+    </r>
+  </si>
+  <si>
+    <t>Adults age 50-54
+Frontline workers age 16-39 who interact with the public in person and cannot work virtually</t>
+  </si>
+  <si>
+    <t>Youth age 12-15 (https://www.princeedwardisland.ca/en/information/health-and-wellness/covid-19-vaccines-and-immunization-phased-approach)</t>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">Individuals age 55-59
+Individuals age 16-39 with underlying medical conditions (as well as all eligible household members)
+Eligible household members (i.e. individuals 16 years of age and older) of any children under the age of 16 with underlying medical conditions
+Frontline workers age 40-59 who interact with the public in person and cannot work virtually
+Non-frontline health care workers needed to maintain health care system capacity </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color theme="1"/>
+        <rFont val="Calibri (Body)"/>
+      </rPr>
+      <t>(https://ca.sports.yahoo.com/news/covid-19-p-e-whats-143103106.html)</t>
+    </r>
+  </si>
+  <si>
+    <t>60 and up or 40 and up with underlying health conditions or public and private health care workers, including clinicians and support staff, who work directly with patients in the community (https://ca.sports.yahoo.com/news/covid-19-p-e-whats-143103106.html)</t>
+  </si>
+  <si>
+    <t>Adults age 30-39 (https://ca.sports.yahoo.com/news/covid-19-p-e-whats-143103106.html)</t>
+  </si>
+  <si>
+    <t>Adults age 18-29 (https://ca.sports.yahoo.com/news/covid-19-p-e-whats-143103106.html)
+Youth age 16-17 (https://www.princeedwardisland.ca/en/information/health-and-wellness/covid-19-vaccines-and-immunization-phased-approach)</t>
   </si>
 </sst>
 </file>
@@ -2561,6 +2717,38 @@
 </worksheet>
 </file>
 
+<file path=xl/worksheets/sheet10.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{7D02248B-4BD6-2646-A0AA-8E51B6286ACD}">
+  <dimension ref="A1"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="O23" sqref="O23"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
+  <sheetData/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet11.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{361A6C7B-87A1-674A-BD86-F5C9AAC52FF6}">
+  <dimension ref="A1"/>
+  <sheetViews>
+    <sheetView workbookViewId="0"/>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
+  <sheetData>
+    <row r="1" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A1" t="s">
+        <v>128</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{9263ABFD-1995-8B49-B8CF-34CEC88DD4AA}">
   <sheetPr>
@@ -3164,16 +3352,17 @@
   <sheetPr>
     <tabColor theme="9" tint="0.39997558519241921"/>
   </sheetPr>
-  <dimension ref="A1:D9"/>
+  <dimension ref="A1:D12"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="D7" sqref="D7"/>
+      <selection activeCell="D8" sqref="D8"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
   <cols>
     <col min="2" max="2" width="67.6640625" customWidth="1"/>
-    <col min="3" max="4" width="19.1640625" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="54" customWidth="1"/>
+    <col min="4" max="4" width="19.1640625" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:4" x14ac:dyDescent="0.2">
@@ -3231,27 +3420,53 @@
         <v>102</v>
       </c>
     </row>
-    <row r="7" spans="1:4" ht="32" x14ac:dyDescent="0.2">
+    <row r="7" spans="1:4" ht="17" x14ac:dyDescent="0.2">
       <c r="A7" s="2">
-        <v>44334</v>
+        <v>44326</v>
       </c>
       <c r="B7" s="1" t="s">
-        <v>109</v>
+        <v>131</v>
       </c>
     </row>
     <row r="8" spans="1:4" ht="32" x14ac:dyDescent="0.2">
       <c r="A8" s="2">
+        <v>44334</v>
+      </c>
+      <c r="B8" s="1" t="s">
+        <v>109</v>
+      </c>
+    </row>
+    <row r="9" spans="1:4" ht="32" x14ac:dyDescent="0.2">
+      <c r="A9" s="2">
         <v>44342</v>
       </c>
-      <c r="B8" s="1" t="s">
+      <c r="B9" s="1" t="s">
         <v>105</v>
       </c>
     </row>
-    <row r="9" spans="1:4" ht="47" x14ac:dyDescent="0.2">
-      <c r="A9" s="2">
+    <row r="10" spans="1:4" ht="47" x14ac:dyDescent="0.2">
+      <c r="A10" s="2">
+        <v>44365</v>
+      </c>
+      <c r="B10" s="1"/>
+      <c r="C10" s="1" t="s">
+        <v>129</v>
+      </c>
+    </row>
+    <row r="11" spans="1:4" ht="64" x14ac:dyDescent="0.2">
+      <c r="A11" s="2">
+        <v>44368</v>
+      </c>
+      <c r="B11" s="1"/>
+      <c r="C11" s="1" t="s">
+        <v>130</v>
+      </c>
+    </row>
+    <row r="12" spans="1:4" ht="47" x14ac:dyDescent="0.2">
+      <c r="A12" s="2">
         <v>44432</v>
       </c>
-      <c r="B9" s="1" t="s">
+      <c r="B12" s="1" t="s">
         <v>108</v>
       </c>
     </row>
@@ -3267,8 +3482,8 @@
   </sheetPr>
   <dimension ref="A1:D19"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="90" zoomScaleNormal="90" workbookViewId="0">
-      <selection activeCell="C5" sqref="C5"/>
+    <sheetView zoomScale="90" zoomScaleNormal="90" workbookViewId="0">
+      <selection activeCell="D1" sqref="A1:D1"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -3453,15 +3668,18 @@
 
 <file path=xl/worksheets/sheet9.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{853811BD-DB9B-2048-97A7-6384298FE324}">
-  <dimension ref="A1:B2"/>
+  <sheetPr>
+    <tabColor theme="9" tint="0.39997558519241921"/>
+  </sheetPr>
+  <dimension ref="A1:B14"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="B6" sqref="B6"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="H8" sqref="H8"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
   <cols>
-    <col min="2" max="2" width="63.83203125" customWidth="1"/>
+    <col min="2" max="2" width="87.6640625" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:2" x14ac:dyDescent="0.2">
@@ -3469,7 +3687,7 @@
         <v>12</v>
       </c>
       <c r="B1" s="3" t="s">
-        <v>2</v>
+        <v>110</v>
       </c>
     </row>
     <row r="2" spans="1:2" ht="32" x14ac:dyDescent="0.2">
@@ -3478,6 +3696,102 @@
       </c>
       <c r="B2" s="6" t="s">
         <v>24</v>
+      </c>
+    </row>
+    <row r="3" spans="1:2" ht="47" x14ac:dyDescent="0.2">
+      <c r="A3" s="2">
+        <v>44284</v>
+      </c>
+      <c r="B3" s="6" t="s">
+        <v>134</v>
+      </c>
+    </row>
+    <row r="4" spans="1:2" ht="47" x14ac:dyDescent="0.2">
+      <c r="A4" s="2">
+        <v>44285</v>
+      </c>
+      <c r="B4" s="6" t="s">
+        <v>137</v>
+      </c>
+    </row>
+    <row r="5" spans="1:2" ht="47" x14ac:dyDescent="0.2">
+      <c r="A5" s="2">
+        <v>44286</v>
+      </c>
+      <c r="B5" s="6" t="s">
+        <v>136</v>
+      </c>
+    </row>
+    <row r="6" spans="1:2" ht="32" x14ac:dyDescent="0.2">
+      <c r="A6" s="2">
+        <v>44287</v>
+      </c>
+      <c r="B6" s="6" t="s">
+        <v>135</v>
+      </c>
+    </row>
+    <row r="7" spans="1:2" ht="51" x14ac:dyDescent="0.2">
+      <c r="A7" s="2">
+        <v>44291</v>
+      </c>
+      <c r="B7" s="6" t="s">
+        <v>141</v>
+      </c>
+    </row>
+    <row r="8" spans="1:2" ht="117" x14ac:dyDescent="0.2">
+      <c r="A8" s="2">
+        <v>44298</v>
+      </c>
+      <c r="B8" s="6" t="s">
+        <v>140</v>
+      </c>
+    </row>
+    <row r="9" spans="1:2" ht="34" x14ac:dyDescent="0.2">
+      <c r="A9" s="2">
+        <v>44305</v>
+      </c>
+      <c r="B9" s="6" t="s">
+        <v>138</v>
+      </c>
+    </row>
+    <row r="10" spans="1:2" ht="17" x14ac:dyDescent="0.2">
+      <c r="A10" s="2">
+        <v>44311</v>
+      </c>
+      <c r="B10" s="6" t="s">
+        <v>133</v>
+      </c>
+    </row>
+    <row r="11" spans="1:2" ht="32" x14ac:dyDescent="0.2">
+      <c r="A11" s="2">
+        <v>44312</v>
+      </c>
+      <c r="B11" s="1" t="s">
+        <v>132</v>
+      </c>
+    </row>
+    <row r="12" spans="1:2" ht="17" x14ac:dyDescent="0.2">
+      <c r="A12" s="2">
+        <v>44319</v>
+      </c>
+      <c r="B12" s="1" t="s">
+        <v>142</v>
+      </c>
+    </row>
+    <row r="13" spans="1:2" ht="51" x14ac:dyDescent="0.2">
+      <c r="A13" s="2">
+        <v>44326</v>
+      </c>
+      <c r="B13" s="1" t="s">
+        <v>143</v>
+      </c>
+    </row>
+    <row r="14" spans="1:2" ht="34" x14ac:dyDescent="0.2">
+      <c r="A14" s="2">
+        <v>44333</v>
+      </c>
+      <c r="B14" s="1" t="s">
+        <v>139</v>
       </c>
     </row>
   </sheetData>

--- a/Vaccination eligibilty by age group.xlsx
+++ b/Vaccination eligibilty by age group.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/annaakanteva/Desktop/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{D17FCEC9-07E5-3A44-8522-7E84260017DA}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{41A73B9A-53AE-6141-852C-3C73858126F0}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="760" yWindow="500" windowWidth="26520" windowHeight="15840" activeTab="8" xr2:uid="{42CBD2A0-592A-D44B-83E7-AC377C1AF0E6}"/>
+    <workbookView xWindow="760" yWindow="500" windowWidth="26520" windowHeight="15840" activeTab="9" xr2:uid="{42CBD2A0-592A-D44B-83E7-AC377C1AF0E6}"/>
   </bookViews>
   <sheets>
     <sheet name="Manitoba" sheetId="3" r:id="rId1"/>
@@ -22,8 +22,10 @@
     <sheet name="New Brunswick" sheetId="9" r:id="rId7"/>
     <sheet name="Saskatchewan" sheetId="7" r:id="rId8"/>
     <sheet name="PEI" sheetId="6" r:id="rId9"/>
-    <sheet name="NL" sheetId="11" r:id="rId10"/>
-    <sheet name="NWT" sheetId="10" r:id="rId11"/>
+    <sheet name="Newfoundland &amp; Labrador" sheetId="11" r:id="rId10"/>
+    <sheet name="Yukon" sheetId="12" r:id="rId11"/>
+    <sheet name="Nunavut" sheetId="13" r:id="rId12"/>
+    <sheet name="NWT" sheetId="10" r:id="rId13"/>
   </sheets>
   <calcPr calcId="181029"/>
   <extLst>
@@ -44,7 +46,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="163" uniqueCount="144">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="179" uniqueCount="152">
   <si>
     <t>December 2020 to March 2021</t>
   </si>
@@ -1771,9 +1773,6 @@
     <t>32 and up (https://ca.finance.yahoo.com/news/covid-19-sask-vaccine-eligibility-203237181.html)</t>
   </si>
   <si>
-    <t>N</t>
-  </si>
-  <si>
     <r>
       <t xml:space="preserve">people who got their first dose before May 15 </t>
     </r>
@@ -1924,12 +1923,160 @@
     <t>Adults age 18-29 (https://ca.sports.yahoo.com/news/covid-19-p-e-whats-143103106.html)
 Youth age 16-17 (https://www.princeedwardisland.ca/en/information/health-and-wellness/covid-19-vaccines-and-immunization-phased-approach)</t>
   </si>
+  <si>
+    <r>
+      <t xml:space="preserve">40 and over </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color theme="1"/>
+        <rFont val="Calibri (Body)"/>
+      </rPr>
+      <t>(https://www.cbc.ca/news/canada/newfoundland-labrador/over-40-vaccines-newfoundland-labrador-1.6023676)</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">*50 years and older
+*adult household members of rotational workers, truck drivers and flight crews. 
+*Children of the above listed workers can also get the vaccine, but they are eligible only for the Pfizer vaccine, and must be between the ages of 12 and 17. 
+</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color theme="1"/>
+        <rFont val="Calibri (Body)"/>
+      </rPr>
+      <t>(https://www.cbc.ca/news/canada/newfoundland-labrador/rotational-workers-kids-vaccine-1.6020802)</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">Indigenous adults 18+ living in communities in the LG (Labrador-Grenfell) Health service area. </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color theme="1"/>
+        <rFont val="Calibri (Body)"/>
+      </rPr>
+      <t>(https://nunatukavut.ca/article/phase-2-covid-19-vaccinations-starting-for-indigenous-adults-in-newfoundland-and-labrador/)</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve">
+adults 60 years and older in the Labrador-Grenfell Health region </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color theme="1"/>
+        <rFont val="Calibri (Body)"/>
+      </rPr>
+      <t>(https://vocm.com/2021/03/29/covid-update-march-29/)</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">people over the 85 </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color theme="1"/>
+        <rFont val="Calibri (Body)"/>
+      </rPr>
+      <t>(https://www.saltwire.com/nova-scotia/news/covid-19-vaccinations-begin-this-week-for-those-over-85-in-newfoundland-and-labrador-561736/)</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">70 and older </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color theme="1"/>
+        <rFont val="Calibri (Body)"/>
+      </rPr>
+      <t>(https://www.saltwire.com/nova-scotia/news/covid-19-vaccinations-begin-this-week-for-those-over-85-in-newfoundland-and-labrador-561736/)</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">province extending the interval between the first and second doses of the COVID-19 vaccine to four months. </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color theme="1"/>
+        <rFont val="Calibri (Body)"/>
+      </rPr>
+      <t>(https://www.cp24.com/news/who-have-provinces-pegged-to-receive-covid-19-vaccines-in-the-coming-weeks-1.5380609)</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <b/>
+        <u/>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="Calibri (Body)"/>
+      </rPr>
+      <t>Covid Immunization timeline</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve"> (https://www.gov.nl.ca/covid-19/vaccine/files/Vaccine-Chart-Schedule-April-7-v3.pdf)</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">30 and over </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color theme="1"/>
+        <rFont val="Calibri (Body)"/>
+      </rPr>
+      <t>(https://vocm.com/2021/05/14/vaccines-30-and-older/)</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t>12 and over</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color theme="1"/>
+        <rFont val="Calibri (Body)"/>
+      </rPr>
+      <t xml:space="preserve"> (https://vocm.com/2021/05/14/vaccines-30-and-older/)</t>
+    </r>
+  </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="13" x14ac:knownFonts="1">
+  <fonts count="14" x14ac:knownFonts="1">
     <font>
       <sz val="12"/>
       <color theme="1"/>
@@ -2000,6 +2147,13 @@
       <name val="Calibri"/>
       <family val="2"/>
       <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <u/>
+      <sz val="12"/>
+      <color theme="1"/>
+      <name val="Calibri (Body)"/>
     </font>
   </fonts>
   <fills count="2">
@@ -2375,7 +2529,7 @@
   <dimension ref="A1:C39"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection sqref="A1:XFD1"/>
+      <selection activeCell="C8" sqref="C8"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -2719,11 +2873,126 @@
 
 <file path=xl/worksheets/sheet10.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{7D02248B-4BD6-2646-A0AA-8E51B6286ACD}">
+  <sheetPr>
+    <tabColor theme="9" tint="0.39997558519241921"/>
+  </sheetPr>
+  <dimension ref="A1:G10"/>
+  <sheetViews>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="C5" sqref="C5"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
+  <cols>
+    <col min="2" max="2" width="67" customWidth="1"/>
+    <col min="3" max="3" width="47.83203125" customWidth="1"/>
+    <col min="4" max="4" width="18.1640625" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="49.6640625" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A1" s="3" t="s">
+        <v>12</v>
+      </c>
+      <c r="B1" s="3" t="s">
+        <v>110</v>
+      </c>
+      <c r="C1" s="7" t="s">
+        <v>57</v>
+      </c>
+      <c r="D1" s="7" t="s">
+        <v>106</v>
+      </c>
+    </row>
+    <row r="2" spans="1:7" ht="64" x14ac:dyDescent="0.2">
+      <c r="A2" s="5">
+        <v>44258</v>
+      </c>
+      <c r="B2" s="3"/>
+      <c r="C2" s="10" t="s">
+        <v>148</v>
+      </c>
+      <c r="D2" s="7"/>
+    </row>
+    <row r="3" spans="1:7" ht="32" x14ac:dyDescent="0.2">
+      <c r="A3" s="5">
+        <v>44265</v>
+      </c>
+      <c r="B3" s="6" t="s">
+        <v>146</v>
+      </c>
+      <c r="C3" s="7"/>
+      <c r="D3" s="7"/>
+    </row>
+    <row r="4" spans="1:7" ht="32" x14ac:dyDescent="0.2">
+      <c r="A4" s="5">
+        <v>44270</v>
+      </c>
+      <c r="B4" s="6" t="s">
+        <v>147</v>
+      </c>
+      <c r="C4" s="7"/>
+      <c r="D4" s="7"/>
+    </row>
+    <row r="5" spans="1:7" ht="83" x14ac:dyDescent="0.2">
+      <c r="A5" s="5">
+        <v>44284</v>
+      </c>
+      <c r="B5" s="6" t="s">
+        <v>145</v>
+      </c>
+      <c r="C5" s="7"/>
+      <c r="D5" s="7"/>
+    </row>
+    <row r="6" spans="1:7" ht="132" x14ac:dyDescent="0.2">
+      <c r="A6" s="5">
+        <v>44326</v>
+      </c>
+      <c r="B6" s="6" t="s">
+        <v>144</v>
+      </c>
+      <c r="C6" s="7"/>
+      <c r="D6" s="7"/>
+    </row>
+    <row r="7" spans="1:7" ht="32" x14ac:dyDescent="0.2">
+      <c r="A7" s="2">
+        <v>44328</v>
+      </c>
+      <c r="B7" s="1" t="s">
+        <v>143</v>
+      </c>
+    </row>
+    <row r="8" spans="1:7" ht="17" x14ac:dyDescent="0.2">
+      <c r="A8" s="2">
+        <v>44330</v>
+      </c>
+      <c r="B8" s="1" t="s">
+        <v>150</v>
+      </c>
+    </row>
+    <row r="9" spans="1:7" ht="17" x14ac:dyDescent="0.2">
+      <c r="A9" s="2">
+        <v>44333</v>
+      </c>
+      <c r="B9" s="1" t="s">
+        <v>151</v>
+      </c>
+    </row>
+    <row r="10" spans="1:7" ht="51" x14ac:dyDescent="0.2">
+      <c r="G10" s="1" t="s">
+        <v>149</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet11.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{D5CD14C5-9E2A-124E-901B-E379909339E8}">
   <dimension ref="A1"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="O23" sqref="O23"/>
-    </sheetView>
+    <sheetView workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
   <sheetData/>
@@ -2731,17 +3000,40 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet11.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{361A6C7B-87A1-674A-BD86-F5C9AAC52FF6}">
+<file path=xl/worksheets/sheet12.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{CE459C87-28F0-2346-A27E-14AC9C92DEB3}">
   <dimension ref="A1"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
+  <sheetData/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet13.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{361A6C7B-87A1-674A-BD86-F5C9AAC52FF6}">
+  <dimension ref="A1:D1"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="C6" sqref="C6"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
   <sheetData>
-    <row r="1" spans="1:1" x14ac:dyDescent="0.2">
-      <c r="A1" t="s">
-        <v>128</v>
+    <row r="1" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A1" s="3" t="s">
+        <v>12</v>
+      </c>
+      <c r="B1" s="3" t="s">
+        <v>110</v>
+      </c>
+      <c r="C1" s="7" t="s">
+        <v>57</v>
+      </c>
+      <c r="D1" s="7" t="s">
+        <v>106</v>
       </c>
     </row>
   </sheetData>
@@ -3425,7 +3717,7 @@
         <v>44326</v>
       </c>
       <c r="B7" s="1" t="s">
-        <v>131</v>
+        <v>130</v>
       </c>
     </row>
     <row r="8" spans="1:4" ht="32" x14ac:dyDescent="0.2">
@@ -3450,7 +3742,7 @@
       </c>
       <c r="B10" s="1"/>
       <c r="C10" s="1" t="s">
-        <v>129</v>
+        <v>128</v>
       </c>
     </row>
     <row r="11" spans="1:4" ht="64" x14ac:dyDescent="0.2">
@@ -3459,7 +3751,7 @@
       </c>
       <c r="B11" s="1"/>
       <c r="C11" s="1" t="s">
-        <v>130</v>
+        <v>129</v>
       </c>
     </row>
     <row r="12" spans="1:4" ht="47" x14ac:dyDescent="0.2">
@@ -3483,7 +3775,7 @@
   <dimension ref="A1:D19"/>
   <sheetViews>
     <sheetView zoomScale="90" zoomScaleNormal="90" workbookViewId="0">
-      <selection activeCell="D1" sqref="A1:D1"/>
+      <selection activeCell="D6" sqref="D6"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -3673,8 +3965,8 @@
   </sheetPr>
   <dimension ref="A1:B14"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="H8" sqref="H8"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="F13" sqref="F13"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -3703,7 +3995,7 @@
         <v>44284</v>
       </c>
       <c r="B3" s="6" t="s">
-        <v>134</v>
+        <v>133</v>
       </c>
     </row>
     <row r="4" spans="1:2" ht="47" x14ac:dyDescent="0.2">
@@ -3711,7 +4003,7 @@
         <v>44285</v>
       </c>
       <c r="B4" s="6" t="s">
-        <v>137</v>
+        <v>136</v>
       </c>
     </row>
     <row r="5" spans="1:2" ht="47" x14ac:dyDescent="0.2">
@@ -3719,7 +4011,7 @@
         <v>44286</v>
       </c>
       <c r="B5" s="6" t="s">
-        <v>136</v>
+        <v>135</v>
       </c>
     </row>
     <row r="6" spans="1:2" ht="32" x14ac:dyDescent="0.2">
@@ -3727,7 +4019,7 @@
         <v>44287</v>
       </c>
       <c r="B6" s="6" t="s">
-        <v>135</v>
+        <v>134</v>
       </c>
     </row>
     <row r="7" spans="1:2" ht="51" x14ac:dyDescent="0.2">
@@ -3735,7 +4027,7 @@
         <v>44291</v>
       </c>
       <c r="B7" s="6" t="s">
-        <v>141</v>
+        <v>140</v>
       </c>
     </row>
     <row r="8" spans="1:2" ht="117" x14ac:dyDescent="0.2">
@@ -3743,7 +4035,7 @@
         <v>44298</v>
       </c>
       <c r="B8" s="6" t="s">
-        <v>140</v>
+        <v>139</v>
       </c>
     </row>
     <row r="9" spans="1:2" ht="34" x14ac:dyDescent="0.2">
@@ -3751,7 +4043,7 @@
         <v>44305</v>
       </c>
       <c r="B9" s="6" t="s">
-        <v>138</v>
+        <v>137</v>
       </c>
     </row>
     <row r="10" spans="1:2" ht="17" x14ac:dyDescent="0.2">
@@ -3759,7 +4051,7 @@
         <v>44311</v>
       </c>
       <c r="B10" s="6" t="s">
-        <v>133</v>
+        <v>132</v>
       </c>
     </row>
     <row r="11" spans="1:2" ht="32" x14ac:dyDescent="0.2">
@@ -3767,7 +4059,7 @@
         <v>44312</v>
       </c>
       <c r="B11" s="1" t="s">
-        <v>132</v>
+        <v>131</v>
       </c>
     </row>
     <row r="12" spans="1:2" ht="17" x14ac:dyDescent="0.2">
@@ -3775,7 +4067,7 @@
         <v>44319</v>
       </c>
       <c r="B12" s="1" t="s">
-        <v>142</v>
+        <v>141</v>
       </c>
     </row>
     <row r="13" spans="1:2" ht="51" x14ac:dyDescent="0.2">
@@ -3783,7 +4075,7 @@
         <v>44326</v>
       </c>
       <c r="B13" s="1" t="s">
-        <v>143</v>
+        <v>142</v>
       </c>
     </row>
     <row r="14" spans="1:2" ht="34" x14ac:dyDescent="0.2">
@@ -3791,7 +4083,7 @@
         <v>44333</v>
       </c>
       <c r="B14" s="1" t="s">
-        <v>139</v>
+        <v>138</v>
       </c>
     </row>
   </sheetData>
